--- a/Excel-files/CrudeOiland-crudeoil.xlsx
+++ b/Excel-files/CrudeOiland-crudeoil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="23" r:id="rId1"/>
     <sheet name="Data 1" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -289,21 +289,25 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -311,12 +315,14 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -324,12 +330,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -337,6 +345,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="35">
@@ -648,7 +662,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -701,8 +715,12 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="28" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -755,8 +773,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -792,6 +817,7 @@
     <cellStyle name="Heading 4" xfId="27" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="36"/>
+    <cellStyle name="Hyperlink 3" xfId="46"/>
     <cellStyle name="Input" xfId="29" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="30" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="38"/>
@@ -857,6 +883,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -875,7 +902,7 @@
           <c:x val="0.14247569624077913"/>
           <c:y val="0.10692985691457578"/>
           <c:w val="0.79577173677108437"/>
-          <c:h val="0.69669150485992781"/>
+          <c:h val="0.66357114958284558"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -909,10 +936,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 1'!$A$4:$A$356</c:f>
+              <c:f>'Data 1'!$A$4:$A$369</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>31912</c:v>
                 </c:pt>
@@ -1971,16 +1998,55 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>43023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 1'!$B$4:$B$356</c:f>
+              <c:f>'Data 1'!$B$4:$B$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>18.579999999999998</c:v>
                 </c:pt>
@@ -3039,6 +3105,45 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>49.52</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44.73</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>53.31</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>54.58</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>54.87</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>51.59</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>52.31</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>50.33</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>48.48</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>56.15</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>57.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,10 +3183,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 1'!$A$4:$A$356</c:f>
+              <c:f>'Data 1'!$A$4:$A$369</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>31912</c:v>
                 </c:pt>
@@ -4140,16 +4245,55 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>43023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 1'!$C$4:$C$356</c:f>
+              <c:f>'Data 1'!$C$4:$C$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>19.440000000000001</c:v>
                 </c:pt>
@@ -5208,6 +5352,45 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>45.18</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>49.78</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>45.66</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>51.97</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>53.47</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>49.33</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>51.06</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>48.48</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>45.18</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>46.63</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>48.04</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>49.82</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>51.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5367,9 +5550,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.930318754633062E-2"/>
-          <c:y val="0.92426685651928753"/>
+          <c:y val="0.85038285057322771"/>
           <c:w val="0.8769458858413639"/>
-          <c:h val="5.8732612055641398E-2"/>
+          <c:h val="0.13261661400369079"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5477,6 +5660,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5519,10 +5703,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 1'!$A$4:$A$356</c:f>
+              <c:f>'Data 1'!$A$4:$A$369</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>31912</c:v>
                 </c:pt>
@@ -6581,16 +6765,55 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>43023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 1'!$D$4:$D$356</c:f>
+              <c:f>'Data 1'!$D$4:$D$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>-0.86000000000000298</c:v>
                 </c:pt>
@@ -7649,6 +7872,45 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>1.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-0.25999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-0.92999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.3400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2.0799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2.2600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.8500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.1899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.8499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3.6600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7853,6 +8115,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7915,10 +8178,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 1'!$A$4:$A$355</c:f>
+              <c:f>'Data 1'!$A$4:$A$367</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="352"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>31912</c:v>
                 </c:pt>
@@ -8974,16 +9237,52 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>42962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 1'!$E$4:$E$355</c:f>
+              <c:f>'Data 1'!$E$4:$E$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="352"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>258426</c:v>
                 </c:pt>
@@ -9693,352 +9992,388 @@
                   <c:v>160768</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>158227</c:v>
+                  <c:v>158342</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>143294</c:v>
+                  <c:v>143301</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>158698</c:v>
+                  <c:v>158697</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>155500</c:v>
+                  <c:v>155407</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>161337</c:v>
+                  <c:v>161548</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>152143</c:v>
+                  <c:v>152254</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>156139</c:v>
+                  <c:v>156175</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>154508</c:v>
+                  <c:v>154060</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>147050</c:v>
+                  <c:v>147061</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>156674</c:v>
+                  <c:v>155680</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>151052</c:v>
+                  <c:v>151021</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>158368</c:v>
+                  <c:v>158427</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>158503</c:v>
+                  <c:v>158562</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>149259</c:v>
+                  <c:v>149090</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>160961</c:v>
+                  <c:v>160960</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>154669</c:v>
+                  <c:v>155217</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>159453</c:v>
+                  <c:v>159467</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>154129</c:v>
+                  <c:v>154054</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>160512</c:v>
+                  <c:v>160433</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>155184</c:v>
+                  <c:v>154912</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>119373</c:v>
+                  <c:v>119128</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>146893</c:v>
+                  <c:v>146858</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>152570</c:v>
+                  <c:v>152216</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>158478</c:v>
+                  <c:v>158237</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>159410</c:v>
+                  <c:v>159293</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>146808</c:v>
+                  <c:v>146579</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>161697</c:v>
+                  <c:v>161507</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>158556</c:v>
+                  <c:v>158296</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>166854</c:v>
+                  <c:v>166560</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>158193</c:v>
+                  <c:v>157887</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>167360</c:v>
+                  <c:v>167007</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>166547</c:v>
+                  <c:v>167592</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>166823</c:v>
+                  <c:v>166631</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>171042</c:v>
+                  <c:v>170936</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>161585</c:v>
+                  <c:v>161307</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>168984</c:v>
+                  <c:v>168641</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>167078</c:v>
+                  <c:v>167107</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>155250</c:v>
+                  <c:v>155293</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>170567</c:v>
+                  <c:v>170575</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>161430</c:v>
+                  <c:v>161431</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>167024</c:v>
+                  <c:v>167052</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>161325</c:v>
+                  <c:v>161404</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>164196</c:v>
+                  <c:v>164203</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>168607</c:v>
+                  <c:v>168640</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>168233</c:v>
+                  <c:v>168270</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>174182</c:v>
+                  <c:v>174188</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>166981</c:v>
+                  <c:v>166838</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>173579</c:v>
+                  <c:v>173442</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>170115</c:v>
+                  <c:v>169998</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>151003</c:v>
+                  <c:v>150980</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>173763</c:v>
+                  <c:v>173726</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>166440</c:v>
+                  <c:v>166375</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>173880</c:v>
+                  <c:v>173764</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>167264</c:v>
+                  <c:v>167146</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>168226</c:v>
+                  <c:v>168071</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>174883</c:v>
+                  <c:v>174806</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>167058</c:v>
+                  <c:v>166986</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>181710</c:v>
+                  <c:v>181616</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>179247</c:v>
+                  <c:v>179146</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>187155</c:v>
+                  <c:v>187024</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>190462</c:v>
+                  <c:v>190382</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>180955</c:v>
+                  <c:v>180866</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>193843</c:v>
+                  <c:v>195014</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>187385</c:v>
+                  <c:v>188542</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>195415</c:v>
+                  <c:v>196566</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>187949</c:v>
+                  <c:v>187910</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>199032</c:v>
+                  <c:v>198952</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>197240</c:v>
+                  <c:v>197251</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>196673</c:v>
+                  <c:v>196684</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>215015</c:v>
+                  <c:v>215152</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>210714</c:v>
+                  <c:v>210884</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>219452</c:v>
+                  <c:v>219559</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>219175</c:v>
+                  <c:v>219251</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>199592</c:v>
+                  <c:v>199798</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>223109</c:v>
+                  <c:v>223248</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>221345</c:v>
+                  <c:v>221179</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>226266</c:v>
+                  <c:v>226212</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>217915</c:v>
+                  <c:v>217614</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>231469</c:v>
+                  <c:v>231370</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>233139</c:v>
+                  <c:v>232895</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>232347</c:v>
+                  <c:v>232831</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>239000</c:v>
+                  <c:v>238966</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>236545</c:v>
+                  <c:v>236347</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>245763</c:v>
+                  <c:v>245459</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>249009</c:v>
+                  <c:v>248710</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>227546</c:v>
+                  <c:v>227198</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>256109</c:v>
+                  <c:v>255848</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>258148</c:v>
+                  <c:v>257907</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>266739</c:v>
+                  <c:v>266430</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>261545</c:v>
+                  <c:v>261211</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>273253</c:v>
+                  <c:v>272962</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>275145</c:v>
+                  <c:v>274834</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>271404</c:v>
+                  <c:v>271380</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>286231</c:v>
+                  <c:v>286188</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>279201</c:v>
+                  <c:v>278837</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>294365</c:v>
+                  <c:v>293412</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>290746</c:v>
+                  <c:v>290108</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>266465</c:v>
+                  <c:v>267043</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>296531</c:v>
+                  <c:v>296392</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>288801</c:v>
+                  <c:v>288788</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>293617</c:v>
+                  <c:v>292254</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>279588</c:v>
+                  <c:v>279881</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>291964</c:v>
+                  <c:v>291456</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>290916</c:v>
+                  <c:v>290742</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>282676</c:v>
+                  <c:v>282521</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>290098</c:v>
+                  <c:v>289522</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>279132</c:v>
+                  <c:v>279204</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>285980</c:v>
+                  <c:v>286108</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>285002</c:v>
+                  <c:v>284780</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>265253</c:v>
+                  <c:v>264107</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>284402</c:v>
+                  <c:v>283160</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>268413</c:v>
+                  <c:v>267193</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>275353</c:v>
+                  <c:v>274635</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>261331</c:v>
+                  <c:v>261080</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>269491</c:v>
+                  <c:v>269130</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>271053</c:v>
+                  <c:v>270207</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>256602</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>272520</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>266282</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>271896</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>274370</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>253967</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>283062</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>273599</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>283996</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>272871</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>286250</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>285278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10243,6 +10578,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10305,10 +10641,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 1'!$A$4:$A$355</c:f>
+              <c:f>'Data 1'!$A$4:$A$369</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="352"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>31912</c:v>
                 </c:pt>
@@ -11364,16 +11700,58 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>43023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 1'!$F$4:$F$355</c:f>
+              <c:f>'Data 1'!$F$4:$F$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="352"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>324703</c:v>
                 </c:pt>
@@ -12407,28 +12785,64 @@
                   <c:v>449220</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>468702</c:v>
+                  <c:v>471767</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>488411</c:v>
+                  <c:v>492153</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>501513</c:v>
+                  <c:v>504811</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>506287</c:v>
+                  <c:v>509323</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>508980</c:v>
+                  <c:v>511861</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>497968</c:v>
+                  <c:v>500857</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>490013</c:v>
+                  <c:v>493458</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>483617</c:v>
+                  <c:v>486675</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>471537</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>491203</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>490734</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>484622</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>504460</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>523569</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>537884</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>523834</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>516868</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>500413</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>482394</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>459342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12691,8 +13105,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>128450</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12912,23 +13326,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -12964,23 +13361,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13140,23 +13520,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
@@ -13165,14 +13545,14 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13181,7 +13561,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
@@ -13198,7 +13578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
@@ -13215,7 +13595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -13223,7 +13603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -13231,7 +13611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -13239,7 +13619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -13247,12 +13627,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -13260,7 +13640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -13286,25 +13666,25 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:N370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -13312,7 +13692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -13320,7 +13700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -13340,7 +13720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>31912</v>
       </c>
@@ -13354,14 +13734,14 @@
         <f>B4-C4</f>
         <v>-0.86000000000000298</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="26">
         <v>258426</v>
       </c>
       <c r="F4" s="9">
         <v>324703</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>31943</v>
       </c>
@@ -13375,14 +13755,14 @@
         <f t="shared" ref="D5:D68" si="0">B5-C5</f>
         <v>-1.2100000000000009</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="26">
         <v>248356</v>
       </c>
       <c r="F5" s="9">
         <v>327598</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>31973</v>
       </c>
@@ -13396,14 +13776,14 @@
         <f t="shared" si="0"/>
         <v>-1.4800000000000004</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="26">
         <v>255782</v>
       </c>
       <c r="F6" s="9">
         <v>323750</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>32004</v>
       </c>
@@ -13417,14 +13797,14 @@
         <f t="shared" si="0"/>
         <v>-1.3299999999999983</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="26">
         <v>254508</v>
       </c>
       <c r="F7" s="9">
         <v>332468</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>32035</v>
       </c>
@@ -13438,14 +13818,14 @@
         <f t="shared" si="0"/>
         <v>-1.2200000000000024</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="26">
         <v>246163</v>
       </c>
       <c r="F8" s="9">
         <v>337164</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>32065</v>
       </c>
@@ -13459,14 +13839,14 @@
         <f t="shared" si="0"/>
         <v>-1.0999999999999979</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="26">
         <v>259272</v>
       </c>
       <c r="F9" s="9">
         <v>355894</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>32096</v>
       </c>
@@ -13480,14 +13860,14 @@
         <f t="shared" si="0"/>
         <v>-1.0700000000000003</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="26">
         <v>251915</v>
       </c>
       <c r="F10" s="9">
         <v>363637</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>32126</v>
       </c>
@@ -13501,14 +13881,14 @@
         <f t="shared" si="0"/>
         <v>-0.23000000000000043</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="26">
         <v>257844</v>
       </c>
       <c r="F11" s="9">
         <v>348995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>32157</v>
       </c>
@@ -13522,14 +13902,14 @@
         <f t="shared" si="0"/>
         <v>-0.37999999999999901</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="26">
         <v>255743</v>
       </c>
       <c r="F12" s="9">
         <v>345583</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>32188</v>
       </c>
@@ -13543,14 +13923,14 @@
         <f t="shared" si="0"/>
         <v>-1.0700000000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="26">
         <v>242848</v>
       </c>
       <c r="F13" s="9">
         <v>348021</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>32217</v>
       </c>
@@ -13564,14 +13944,14 @@
         <f t="shared" si="0"/>
         <v>-1.4699999999999989</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="26">
         <v>259587</v>
       </c>
       <c r="F14" s="9">
         <v>354003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>32248</v>
       </c>
@@ -13585,14 +13965,14 @@
         <f t="shared" si="0"/>
         <v>-1.259999999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="26">
         <v>248629</v>
       </c>
       <c r="F15" s="9">
         <v>357377</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>32278</v>
       </c>
@@ -13606,14 +13986,14 @@
         <f t="shared" si="0"/>
         <v>-1.110000000000003</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="26">
         <v>255089</v>
       </c>
       <c r="F16" s="9">
         <v>359665</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>32309</v>
       </c>
@@ -13627,14 +14007,14 @@
         <f t="shared" si="0"/>
         <v>-0.99000000000000199</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="26">
         <v>245102</v>
       </c>
       <c r="F17" s="9">
         <v>358858</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>32339</v>
       </c>
@@ -13648,14 +14028,14 @@
         <f t="shared" si="0"/>
         <v>-0.58999999999999986</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="26">
         <v>249229</v>
       </c>
       <c r="F18" s="9">
         <v>349490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>32370</v>
       </c>
@@ -13669,14 +14049,14 @@
         <f t="shared" si="0"/>
         <v>-0.62999999999999901</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="26">
         <v>250459</v>
       </c>
       <c r="F19" s="9">
         <v>333564</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>32401</v>
       </c>
@@ -13690,14 +14070,14 @@
         <f t="shared" si="0"/>
         <v>-1.3599999999999994</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="26">
         <v>236847</v>
       </c>
       <c r="F20" s="9">
         <v>328560</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>32431</v>
       </c>
@@ -13711,14 +14091,14 @@
         <f t="shared" si="0"/>
         <v>-1.3599999999999994</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="26">
         <v>248704</v>
       </c>
       <c r="F21" s="9">
         <v>339588</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>32462</v>
       </c>
@@ -13732,14 +14112,14 @@
         <f t="shared" si="0"/>
         <v>-1.120000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="26">
         <v>240700</v>
       </c>
       <c r="F22" s="9">
         <v>337014</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>32492</v>
       </c>
@@ -13753,14 +14133,14 @@
         <f t="shared" si="0"/>
         <v>-1.0699999999999985</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="26">
         <v>246189</v>
       </c>
       <c r="F23" s="9">
         <v>330359</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>32523</v>
       </c>
@@ -13774,14 +14154,14 @@
         <f t="shared" si="0"/>
         <v>-0.84999999999999787</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="26">
         <v>246056</v>
       </c>
       <c r="F24" s="9">
         <v>333912</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>32554</v>
       </c>
@@ -13795,14 +14175,14 @@
         <f t="shared" si="0"/>
         <v>-1.0500000000000007</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="26">
         <v>218076</v>
       </c>
       <c r="F25" s="9">
         <v>332847</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>32582</v>
       </c>
@@ -13816,14 +14196,14 @@
         <f t="shared" si="0"/>
         <v>-0.78000000000000114</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="26">
         <v>234822</v>
       </c>
       <c r="F26" s="9">
         <v>326570</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>32613</v>
       </c>
@@ -13837,14 +14217,14 @@
         <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="26">
         <v>233147</v>
       </c>
       <c r="F27" s="9">
         <v>339596</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>32643</v>
       </c>
@@ -13858,14 +14238,14 @@
         <f t="shared" si="0"/>
         <v>-1.490000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="26">
         <v>242303</v>
       </c>
       <c r="F28" s="9">
         <v>345614</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>32674</v>
       </c>
@@ -13879,14 +14259,14 @@
         <f t="shared" si="0"/>
         <v>-2.379999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="26">
         <v>228731</v>
       </c>
       <c r="F29" s="9">
         <v>331262</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>32704</v>
       </c>
@@ -13900,14 +14280,14 @@
         <f t="shared" si="0"/>
         <v>-2.16</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="26">
         <v>230766</v>
       </c>
       <c r="F30" s="9">
         <v>333194</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>32735</v>
       </c>
@@ -13921,14 +14301,14 @@
         <f t="shared" si="0"/>
         <v>-1.8099999999999987</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="26">
         <v>233878</v>
       </c>
       <c r="F31" s="9">
         <v>340979</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>32766</v>
       </c>
@@ -13942,14 +14322,14 @@
         <f t="shared" si="0"/>
         <v>-1.8200000000000003</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="26">
         <v>226436</v>
       </c>
       <c r="F32" s="9">
         <v>334888</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32796</v>
       </c>
@@ -13963,14 +14343,14 @@
         <f t="shared" si="0"/>
         <v>-1.1900000000000013</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="26">
         <v>231036</v>
       </c>
       <c r="F33" s="9">
         <v>336010</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32827</v>
       </c>
@@ -13984,14 +14364,14 @@
         <f t="shared" si="0"/>
         <v>-1.129999999999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="26">
         <v>226082</v>
       </c>
       <c r="F34" s="9">
         <v>351006</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>32857</v>
       </c>
@@ -14005,14 +14385,14 @@
         <f t="shared" si="0"/>
         <v>-1.2600000000000016</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="26">
         <v>227439</v>
       </c>
       <c r="F35" s="9">
         <v>341291</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>32888</v>
       </c>
@@ -14026,14 +14406,14 @@
         <f t="shared" si="0"/>
         <v>-1.6099999999999994</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="26">
         <v>233931</v>
       </c>
       <c r="F36" s="9">
         <v>349007</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>32919</v>
       </c>
@@ -14047,14 +14427,14 @@
         <f t="shared" si="0"/>
         <v>-2.3000000000000007</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="26">
         <v>209923</v>
       </c>
       <c r="F37" s="9">
         <v>339429</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>32947</v>
       </c>
@@ -14068,14 +14448,14 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="26">
         <v>230434</v>
       </c>
       <c r="F38" s="9">
         <v>370845</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>32978</v>
       </c>
@@ -14089,14 +14469,14 @@
         <f t="shared" si="0"/>
         <v>-1.8200000000000003</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="26">
         <v>222215</v>
       </c>
       <c r="F39" s="9">
         <v>370472</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>33008</v>
       </c>
@@ -14110,14 +14490,14 @@
         <f t="shared" si="0"/>
         <v>-1.8499999999999979</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="26">
         <v>227179</v>
       </c>
       <c r="F40" s="9">
         <v>382540</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>33039</v>
       </c>
@@ -14131,14 +14511,14 @@
         <f t="shared" si="0"/>
         <v>-1.5999999999999996</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="26">
         <v>213175</v>
       </c>
       <c r="F41" s="9">
         <v>384223</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>33069</v>
       </c>
@@ -14152,14 +14532,14 @@
         <f t="shared" si="0"/>
         <v>-1.2799999999999976</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="26">
         <v>222371</v>
       </c>
       <c r="F42" s="9">
         <v>379461</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>33100</v>
       </c>
@@ -14173,14 +14553,14 @@
         <f t="shared" si="0"/>
         <v>-0.13999999999999702</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="26">
         <v>225886</v>
       </c>
       <c r="F43" s="9">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>33131</v>
       </c>
@@ -14194,14 +14574,14 @@
         <f t="shared" si="0"/>
         <v>1.3900000000000006</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="26">
         <v>216715</v>
       </c>
       <c r="F44" s="9">
         <v>342605</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>33161</v>
       </c>
@@ -14215,14 +14595,14 @@
         <f t="shared" si="0"/>
         <v>-1.9999999999996021E-2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="26">
         <v>233799</v>
       </c>
       <c r="F45" s="9">
         <v>346311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>33192</v>
       </c>
@@ -14236,14 +14616,14 @@
         <f t="shared" si="0"/>
         <v>0.74000000000000199</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="26">
         <v>221598</v>
       </c>
       <c r="F46" s="9">
         <v>338727</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>33222</v>
       </c>
@@ -14257,14 +14637,14 @@
         <f t="shared" si="0"/>
         <v>0.98999999999999844</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="26">
         <v>227463</v>
       </c>
       <c r="F47" s="9">
         <v>322695</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>33253</v>
       </c>
@@ -14278,14 +14658,14 @@
         <f t="shared" si="0"/>
         <v>-1.6600000000000001</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="26">
         <v>232498</v>
       </c>
       <c r="F48" s="9">
         <v>320496</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>33284</v>
       </c>
@@ -14299,14 +14679,14 @@
         <f t="shared" si="0"/>
         <v>-0.94000000000000128</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="26">
         <v>213836</v>
       </c>
       <c r="F49" s="9">
         <v>331098</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>33312</v>
       </c>
@@ -14320,14 +14700,14 @@
         <f t="shared" si="0"/>
         <v>-0.82000000000000028</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="26">
         <v>233926</v>
       </c>
       <c r="F50" s="9">
         <v>336771</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>33343</v>
       </c>
@@ -14341,14 +14721,14 @@
         <f t="shared" si="0"/>
         <v>-1.6499999999999986</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="26">
         <v>225256</v>
       </c>
       <c r="F51" s="9">
         <v>338259</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>33373</v>
       </c>
@@ -14362,14 +14742,14 @@
         <f t="shared" si="0"/>
         <v>-2.0399999999999991</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="26">
         <v>229670</v>
       </c>
       <c r="F52" s="9">
         <v>355809</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>33404</v>
       </c>
@@ -14383,14 +14763,14 @@
         <f t="shared" si="0"/>
         <v>-2.0199999999999996</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="26">
         <v>219610</v>
       </c>
       <c r="F53" s="9">
         <v>346842</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>33434</v>
       </c>
@@ -14404,14 +14784,14 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="26">
         <v>227756</v>
       </c>
       <c r="F54" s="9">
         <v>342100</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>33465</v>
       </c>
@@ -14425,14 +14805,14 @@
         <f t="shared" si="0"/>
         <v>-1.9200000000000017</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="26">
         <v>226801</v>
       </c>
       <c r="F55" s="9">
         <v>345307</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>33496</v>
       </c>
@@ -14446,14 +14826,14 @@
         <f t="shared" si="0"/>
         <v>-1.3900000000000006</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="26">
         <v>221029</v>
       </c>
       <c r="F56" s="9">
         <v>340641</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>33526</v>
       </c>
@@ -14467,14 +14847,14 @@
         <f t="shared" si="0"/>
         <v>-1.0199999999999996</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="26">
         <v>230557</v>
       </c>
       <c r="F57" s="9">
         <v>342234</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>33557</v>
       </c>
@@ -14488,14 +14868,14 @@
         <f t="shared" si="0"/>
         <v>-1.3500000000000014</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="26">
         <v>219833</v>
       </c>
       <c r="F58" s="9">
         <v>343527</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>33587</v>
       </c>
@@ -14509,14 +14889,14 @@
         <f t="shared" si="0"/>
         <v>-1.0899999999999999</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="26">
         <v>226267</v>
       </c>
       <c r="F59" s="9">
         <v>324594</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>33618</v>
       </c>
@@ -14530,14 +14910,14 @@
         <f t="shared" si="0"/>
         <v>-0.62999999999999901</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="26">
         <v>228178</v>
       </c>
       <c r="F60" s="9">
         <v>341334</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>33649</v>
       </c>
@@ -14551,14 +14931,14 @@
         <f t="shared" si="0"/>
         <v>-0.96000000000000085</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="26">
         <v>214269</v>
       </c>
       <c r="F61" s="9">
         <v>346300</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>33678</v>
       </c>
@@ -14572,14 +14952,14 @@
         <f t="shared" si="0"/>
         <v>-1.2900000000000027</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="26">
         <v>227798</v>
       </c>
       <c r="F62" s="9">
         <v>338536</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>33709</v>
       </c>
@@ -14593,14 +14973,14 @@
         <f t="shared" si="0"/>
         <v>-1.3099999999999987</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="26">
         <v>218775</v>
       </c>
       <c r="F63" s="9">
         <v>347995</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>33739</v>
       </c>
@@ -14614,14 +14994,14 @@
         <f t="shared" si="0"/>
         <v>-1.0899999999999999</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="26">
         <v>222227</v>
       </c>
       <c r="F64" s="9">
         <v>343513</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>33770</v>
       </c>
@@ -14635,14 +15015,14 @@
         <f t="shared" si="0"/>
         <v>-1.2300000000000004</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="26">
         <v>215019</v>
       </c>
       <c r="F65" s="9">
         <v>325073</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>33800</v>
       </c>
@@ -14656,14 +15036,14 @@
         <f t="shared" si="0"/>
         <v>-1.5400000000000027</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="26">
         <v>221064</v>
       </c>
       <c r="F66" s="9">
         <v>332635</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>33831</v>
       </c>
@@ -14677,14 +15057,14 @@
         <f t="shared" si="0"/>
         <v>-1.6000000000000014</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="26">
         <v>214575</v>
       </c>
       <c r="F67" s="9">
         <v>328170</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>33862</v>
       </c>
@@ -14698,14 +15078,14 @@
         <f t="shared" si="0"/>
         <v>-1.6099999999999994</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="26">
         <v>210904</v>
       </c>
       <c r="F68" s="9">
         <v>322058</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>33892</v>
       </c>
@@ -14719,14 +15099,14 @@
         <f t="shared" ref="D69:D132" si="1">B69-C69</f>
         <v>-1.4299999999999997</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="26">
         <v>220898</v>
       </c>
       <c r="F69" s="9">
         <v>332662</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>33923</v>
       </c>
@@ -14740,14 +15120,14 @@
         <f t="shared" si="1"/>
         <v>-1.129999999999999</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="26">
         <v>210724</v>
       </c>
       <c r="F70" s="9">
         <v>325385</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>33953</v>
       </c>
@@ -14761,14 +15141,14 @@
         <f t="shared" si="1"/>
         <v>-1.2699999999999996</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="26">
         <v>220200</v>
       </c>
       <c r="F71" s="9">
         <v>318140</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>33984</v>
       </c>
@@ -14782,14 +15162,14 @@
         <f t="shared" si="1"/>
         <v>-1.6400000000000006</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="26">
         <v>215791</v>
       </c>
       <c r="F72" s="9">
         <v>326699</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>34015</v>
       </c>
@@ -14803,14 +15183,14 @@
         <f t="shared" si="1"/>
         <v>-1.620000000000001</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="26">
         <v>194393</v>
       </c>
       <c r="F73" s="9">
         <v>332336</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>34043</v>
       </c>
@@ -14824,14 +15204,14 @@
         <f t="shared" si="1"/>
         <v>-1.5300000000000011</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="26">
         <v>216198</v>
       </c>
       <c r="F74" s="9">
         <v>337113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>34074</v>
       </c>
@@ -14845,14 +15225,14 @@
         <f t="shared" si="1"/>
         <v>-1.5799999999999983</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="26">
         <v>206439</v>
       </c>
       <c r="F75" s="9">
         <v>348711</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>34104</v>
       </c>
@@ -14866,14 +15246,14 @@
         <f t="shared" si="1"/>
         <v>-1.4399999999999977</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="26">
         <v>212255</v>
       </c>
       <c r="F76" s="9">
         <v>352862</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>34135</v>
       </c>
@@ -14887,14 +15267,14 @@
         <f t="shared" si="1"/>
         <v>-1.4400000000000013</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="26">
         <v>203842</v>
       </c>
       <c r="F77" s="9">
         <v>352276</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>34165</v>
       </c>
@@ -14908,14 +15288,14 @@
         <f t="shared" si="1"/>
         <v>-1.1099999999999994</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="26">
         <v>207339</v>
       </c>
       <c r="F78" s="9">
         <v>351873</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>34196</v>
       </c>
@@ -14929,14 +15309,14 @@
         <f t="shared" si="1"/>
         <v>-1.3100000000000023</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="26">
         <v>209492</v>
       </c>
       <c r="F79" s="9">
         <v>335471</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>34227</v>
       </c>
@@ -14950,14 +15330,14 @@
         <f t="shared" si="1"/>
         <v>-1.4899999999999984</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="26">
         <v>201347</v>
       </c>
       <c r="F80" s="9">
         <v>320731</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>34257</v>
       </c>
@@ -14971,14 +15351,14 @@
         <f t="shared" si="1"/>
         <v>-1.5399999999999991</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="26">
         <v>212003</v>
       </c>
       <c r="F81" s="9">
         <v>330320</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>34288</v>
       </c>
@@ -14992,14 +15372,14 @@
         <f t="shared" si="1"/>
         <v>-1.4100000000000001</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="26">
         <v>207349</v>
       </c>
       <c r="F82" s="9">
         <v>337307</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>34318</v>
       </c>
@@ -15013,14 +15393,14 @@
         <f t="shared" si="1"/>
         <v>-0.78999999999999915</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="26">
         <v>212585</v>
       </c>
       <c r="F83" s="9">
         <v>335385</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>34349</v>
       </c>
@@ -15034,14 +15414,14 @@
         <f t="shared" si="1"/>
         <v>-0.74000000000000021</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="26">
         <v>211320</v>
       </c>
       <c r="F84" s="9">
         <v>338067</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>34380</v>
       </c>
@@ -15055,14 +15435,14 @@
         <f t="shared" si="1"/>
         <v>-0.97999999999999865</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="26">
         <v>189569</v>
       </c>
       <c r="F85" s="9">
         <v>335351</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>34408</v>
       </c>
@@ -15076,14 +15456,14 @@
         <f t="shared" si="1"/>
         <v>-0.85999999999999943</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="26">
         <v>209114</v>
       </c>
       <c r="F86" s="9">
         <v>342345</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>34439</v>
       </c>
@@ -15097,14 +15477,14 @@
         <f t="shared" si="1"/>
         <v>-1.1900000000000013</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="26">
         <v>198363</v>
       </c>
       <c r="F87" s="9">
         <v>339391</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>34469</v>
       </c>
@@ -15118,14 +15498,14 @@
         <f t="shared" si="1"/>
         <v>-1.6999999999999993</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="26">
         <v>207334</v>
       </c>
       <c r="F88" s="9">
         <v>331544</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>34500</v>
       </c>
@@ -15139,14 +15519,14 @@
         <f t="shared" si="1"/>
         <v>-2.2999999999999972</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="26">
         <v>198318</v>
       </c>
       <c r="F89" s="9">
         <v>327933</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>34530</v>
       </c>
@@ -15160,14 +15540,14 @@
         <f t="shared" si="1"/>
         <v>-2.0599999999999987</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="26">
         <v>201527</v>
       </c>
       <c r="F90" s="9">
         <v>332527</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>34561</v>
       </c>
@@ -15181,14 +15561,14 @@
         <f t="shared" si="1"/>
         <v>-1.4899999999999984</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="26">
         <v>202869</v>
       </c>
       <c r="F91" s="9">
         <v>328519</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>34592</v>
       </c>
@@ -15202,14 +15582,14 @@
         <f t="shared" si="1"/>
         <v>-1.5499999999999989</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="26">
         <v>198264</v>
       </c>
       <c r="F92" s="9">
         <v>335327</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>34622</v>
       </c>
@@ -15223,14 +15603,14 @@
         <f t="shared" si="1"/>
         <v>-1.2300000000000004</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="26">
         <v>206398</v>
       </c>
       <c r="F93" s="9">
         <v>343237</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>34653</v>
       </c>
@@ -15244,14 +15624,14 @@
         <f t="shared" si="1"/>
         <v>-0.87999999999999901</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="26">
         <v>198850</v>
       </c>
       <c r="F94" s="9">
         <v>346287</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>34683</v>
       </c>
@@ -15265,14 +15645,14 @@
         <f t="shared" si="1"/>
         <v>-1.2300000000000004</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="26">
         <v>209550</v>
       </c>
       <c r="F95" s="9">
         <v>337245</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>34714</v>
       </c>
@@ -15286,14 +15666,14 @@
         <f t="shared" si="1"/>
         <v>-1.4899999999999984</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="26">
         <v>207148</v>
       </c>
       <c r="F96" s="9">
         <v>330463</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>34745</v>
       </c>
@@ -15307,14 +15687,14 @@
         <f t="shared" si="1"/>
         <v>-1.4600000000000009</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="26">
         <v>190245</v>
       </c>
       <c r="F97" s="9">
         <v>329083</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>34773</v>
       </c>
@@ -15328,14 +15708,14 @@
         <f t="shared" si="1"/>
         <v>-1.5299999999999976</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="26">
         <v>204613</v>
       </c>
       <c r="F98" s="9">
         <v>339486</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>34804</v>
       </c>
@@ -15349,14 +15729,14 @@
         <f t="shared" si="1"/>
         <v>-1.25</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="26">
         <v>198111</v>
       </c>
       <c r="F99" s="9">
         <v>336445</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>34834</v>
       </c>
@@ -15370,14 +15750,14 @@
         <f t="shared" si="1"/>
         <v>-1.389999999999997</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="26">
         <v>205509</v>
       </c>
       <c r="F100" s="9">
         <v>332352</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>34865</v>
       </c>
@@ -15391,14 +15771,14 @@
         <f t="shared" si="1"/>
         <v>-1.1400000000000006</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="26">
         <v>197359</v>
       </c>
       <c r="F101" s="9">
         <v>327911</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>34895</v>
       </c>
@@ -15412,14 +15792,14 @@
         <f t="shared" si="1"/>
         <v>-1.4799999999999986</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="26">
         <v>199912</v>
       </c>
       <c r="F102" s="9">
         <v>315599</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>34926</v>
       </c>
@@ -15433,14 +15813,14 @@
         <f t="shared" si="1"/>
         <v>-1.9199999999999982</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="26">
         <v>199846</v>
       </c>
       <c r="F103" s="9">
         <v>307750</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>34957</v>
       </c>
@@ -15454,14 +15834,14 @@
         <f t="shared" si="1"/>
         <v>-1.5300000000000011</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="26">
         <v>192484</v>
       </c>
       <c r="F104" s="9">
         <v>305846</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>34987</v>
       </c>
@@ -15475,14 +15855,14 @@
         <f t="shared" si="1"/>
         <v>-1.3200000000000003</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="26">
         <v>199055</v>
       </c>
       <c r="F105" s="9">
         <v>311072</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>35018</v>
       </c>
@@ -15496,14 +15876,14 @@
         <f t="shared" si="1"/>
         <v>-1.129999999999999</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="26">
         <v>197559</v>
       </c>
       <c r="F106" s="9">
         <v>318981</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>35048</v>
       </c>
@@ -15517,14 +15897,14 @@
         <f t="shared" si="1"/>
         <v>-1.1000000000000014</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="26">
         <v>202428</v>
       </c>
       <c r="F107" s="9">
         <v>303328</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>35079</v>
       </c>
@@ -15538,14 +15918,14 @@
         <f t="shared" si="1"/>
         <v>-1.009999999999998</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="26">
         <v>201354</v>
       </c>
       <c r="F108" s="9">
         <v>303081</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>35110</v>
       </c>
@@ -15559,14 +15939,14 @@
         <f t="shared" si="1"/>
         <v>-1.0899999999999999</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="26">
         <v>190727</v>
       </c>
       <c r="F109" s="9">
         <v>301269</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>35139</v>
       </c>
@@ -15580,14 +15960,14 @@
         <f t="shared" si="1"/>
         <v>-1.4799999999999969</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="26">
         <v>203715</v>
       </c>
       <c r="F110" s="9">
         <v>299657</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>35170</v>
       </c>
@@ -15601,14 +15981,14 @@
         <f t="shared" si="1"/>
         <v>-2.6000000000000014</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="26">
         <v>193317</v>
       </c>
       <c r="F111" s="9">
         <v>303178</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>35200</v>
       </c>
@@ -15622,14 +16002,14 @@
         <f t="shared" si="1"/>
         <v>-2.0200000000000031</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="26">
         <v>198208</v>
       </c>
       <c r="F112" s="9">
         <v>303927</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>35231</v>
       </c>
@@ -15643,14 +16023,14 @@
         <f t="shared" si="1"/>
         <v>-1.9600000000000009</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="26">
         <v>193746</v>
       </c>
       <c r="F113" s="9">
         <v>314435</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>35261</v>
       </c>
@@ -15664,14 +16044,14 @@
         <f t="shared" si="1"/>
         <v>-1.7300000000000004</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="26">
         <v>196471</v>
       </c>
       <c r="F114" s="9">
         <v>308413</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>35292</v>
       </c>
@@ -15685,14 +16065,14 @@
         <f t="shared" si="1"/>
         <v>-1.389999999999997</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="26">
         <v>197162</v>
       </c>
       <c r="F115" s="9">
         <v>313158</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>35323</v>
       </c>
@@ -15706,14 +16086,14 @@
         <f t="shared" si="1"/>
         <v>-1.3399999999999999</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="26">
         <v>194456</v>
       </c>
       <c r="F116" s="9">
         <v>302116</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>35353</v>
       </c>
@@ -15727,14 +16107,14 @@
         <f t="shared" si="1"/>
         <v>-0.71999999999999886</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="26">
         <v>200907</v>
       </c>
       <c r="F117" s="9">
         <v>307925</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>35384</v>
       </c>
@@ -15748,14 +16128,14 @@
         <f t="shared" si="1"/>
         <v>-0.94999999999999929</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="26">
         <v>194268</v>
       </c>
       <c r="F118" s="9">
         <v>299296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>35414</v>
       </c>
@@ -15769,14 +16149,14 @@
         <f t="shared" si="1"/>
         <v>-1.4499999999999993</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="26">
         <v>201685</v>
       </c>
       <c r="F119" s="9">
         <v>283853</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>35445</v>
       </c>
@@ -15790,14 +16170,14 @@
         <f t="shared" si="1"/>
         <v>-1.5899999999999999</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="26">
         <v>198466</v>
       </c>
       <c r="F120" s="9">
         <v>300506</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>35476</v>
       </c>
@@ -15811,14 +16191,14 @@
         <f t="shared" si="1"/>
         <v>-1.3299999999999983</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="26">
         <v>182400</v>
       </c>
       <c r="F121" s="9">
         <v>297107</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>35504</v>
       </c>
@@ -15832,14 +16212,14 @@
         <f t="shared" si="1"/>
         <v>-1.8399999999999999</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="26">
         <v>200013</v>
       </c>
       <c r="F122" s="9">
         <v>313219</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>35535</v>
       </c>
@@ -15853,14 +16233,14 @@
         <f t="shared" si="1"/>
         <v>-2.1400000000000006</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="26">
         <v>193239</v>
       </c>
       <c r="F123" s="9">
         <v>319134</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>35565</v>
       </c>
@@ -15874,14 +16254,14 @@
         <f t="shared" si="1"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="26">
         <v>200702</v>
       </c>
       <c r="F124" s="9">
         <v>326279</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>35596</v>
       </c>
@@ -15895,14 +16275,14 @@
         <f t="shared" si="1"/>
         <v>-1.6800000000000033</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="26">
         <v>193252</v>
       </c>
       <c r="F125" s="9">
         <v>320324</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>35626</v>
       </c>
@@ -15916,14 +16296,14 @@
         <f t="shared" si="1"/>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="26">
         <v>198691</v>
       </c>
       <c r="F126" s="9">
         <v>309694</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>35657</v>
       </c>
@@ -15937,14 +16317,14 @@
         <f t="shared" si="1"/>
         <v>-1.3499999999999979</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="26">
         <v>196769</v>
       </c>
       <c r="F127" s="9">
         <v>300911</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>35688</v>
       </c>
@@ -15958,14 +16338,14 @@
         <f t="shared" si="1"/>
         <v>-1.3399999999999999</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="26">
         <v>194575</v>
       </c>
       <c r="F128" s="9">
         <v>303775</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>35718</v>
       </c>
@@ -15979,14 +16359,14 @@
         <f t="shared" si="1"/>
         <v>-1.4599999999999973</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="26">
         <v>200482</v>
       </c>
       <c r="F129" s="9">
         <v>315957</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>35749</v>
       </c>
@@ -16000,14 +16380,14 @@
         <f t="shared" si="1"/>
         <v>-1.0199999999999996</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="26">
         <v>193778</v>
       </c>
       <c r="F130" s="9">
         <v>323522</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>35779</v>
       </c>
@@ -16021,14 +16401,14 @@
         <f t="shared" si="1"/>
         <v>-1.1499999999999986</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="26">
         <v>202464</v>
       </c>
       <c r="F131" s="9">
         <v>304690</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>35810</v>
       </c>
@@ -16042,14 +16422,14 @@
         <f t="shared" si="1"/>
         <v>-1.5299999999999994</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="26">
         <v>202756</v>
       </c>
       <c r="F132" s="9">
         <v>316754</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>35841</v>
       </c>
@@ -16063,14 +16443,14 @@
         <f t="shared" ref="D133:D196" si="2">B133-C133</f>
         <v>-1.9899999999999984</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="26">
         <v>181321</v>
       </c>
       <c r="F133" s="9">
         <v>317805</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>35869</v>
       </c>
@@ -16084,14 +16464,14 @@
         <f t="shared" si="2"/>
         <v>-2.0199999999999996</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="26">
         <v>198639</v>
       </c>
       <c r="F134" s="9">
         <v>334484</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>35900</v>
       </c>
@@ -16105,14 +16485,14 @@
         <f t="shared" si="2"/>
         <v>-1.8200000000000003</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="26">
         <v>194483</v>
       </c>
       <c r="F135" s="9">
         <v>351149</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>35930</v>
       </c>
@@ -16126,14 +16506,14 @@
         <f t="shared" si="2"/>
         <v>-0.55000000000000071</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="26">
         <v>196754</v>
       </c>
       <c r="F136" s="9">
         <v>350875</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>35961</v>
       </c>
@@ -16147,14 +16527,14 @@
         <f t="shared" si="2"/>
         <v>-1.5099999999999998</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="26">
         <v>188018</v>
       </c>
       <c r="F137" s="9">
         <v>332276</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>35991</v>
       </c>
@@ -16168,14 +16548,14 @@
         <f t="shared" si="2"/>
         <v>-2.09</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="26">
         <v>192026</v>
       </c>
       <c r="F138" s="9">
         <v>338068</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>36022</v>
       </c>
@@ -16189,14 +16569,14 @@
         <f t="shared" si="2"/>
         <v>-1.5600000000000005</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="26">
         <v>192282</v>
       </c>
       <c r="F139" s="9">
         <v>328992</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>36053</v>
       </c>
@@ -16210,14 +16590,14 @@
         <f t="shared" si="2"/>
         <v>-1.6899999999999995</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="26">
         <v>173676</v>
       </c>
       <c r="F140" s="9">
         <v>309773</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>36083</v>
       </c>
@@ -16231,14 +16611,14 @@
         <f t="shared" si="2"/>
         <v>-1.7600000000000016</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="26">
         <v>190420</v>
       </c>
       <c r="F141" s="9">
         <v>330158</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>36114</v>
       </c>
@@ -16252,14 +16632,14 @@
         <f t="shared" si="2"/>
         <v>-1.9600000000000009</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="26">
         <v>184198</v>
       </c>
       <c r="F142" s="9">
         <v>335269</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>36144</v>
       </c>
@@ -16273,14 +16653,14 @@
         <f t="shared" si="2"/>
         <v>-1.5299999999999994</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="26">
         <v>187347</v>
       </c>
       <c r="F143" s="9">
         <v>323543</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>36175</v>
       </c>
@@ -16294,14 +16674,14 @@
         <f t="shared" si="2"/>
         <v>-1.4100000000000001</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="26">
         <v>184864</v>
       </c>
       <c r="F144" s="9">
         <v>332210</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>36206</v>
       </c>
@@ -16315,14 +16695,14 @@
         <f t="shared" si="2"/>
         <v>-1.7400000000000002</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="26">
         <v>167034</v>
       </c>
       <c r="F145" s="9">
         <v>333621</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>36234</v>
       </c>
@@ -16336,14 +16716,14 @@
         <f t="shared" si="2"/>
         <v>-2.17</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="26">
         <v>182362</v>
       </c>
       <c r="F146" s="9">
         <v>344998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>36265</v>
       </c>
@@ -16357,14 +16737,14 @@
         <f t="shared" si="2"/>
         <v>-2.0199999999999996</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="26">
         <v>176616</v>
       </c>
       <c r="F147" s="9">
         <v>335479</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>36295</v>
       </c>
@@ -16378,14 +16758,14 @@
         <f t="shared" si="2"/>
         <v>-2.4899999999999984</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="26">
         <v>182122</v>
       </c>
       <c r="F148" s="9">
         <v>339987</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>36326</v>
       </c>
@@ -16399,14 +16779,14 @@
         <f t="shared" si="2"/>
         <v>-2.0600000000000023</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="26">
         <v>172808</v>
       </c>
       <c r="F149" s="9">
         <v>331721</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>36356</v>
       </c>
@@ -16420,14 +16800,14 @@
         <f t="shared" si="2"/>
         <v>-1.0200000000000031</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="26">
         <v>179738</v>
       </c>
       <c r="F150" s="9">
         <v>331867</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>36387</v>
       </c>
@@ -16441,14 +16821,14 @@
         <f t="shared" si="2"/>
         <v>-1.0600000000000023</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="26">
         <v>179187</v>
       </c>
       <c r="F151" s="9">
         <v>315156</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>36418</v>
       </c>
@@ -16462,14 +16842,14 @@
         <f t="shared" si="2"/>
         <v>-1.2600000000000016</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="26">
         <v>174113</v>
       </c>
       <c r="F152" s="9">
         <v>303516</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>36448</v>
       </c>
@@ -16483,14 +16863,14 @@
         <f t="shared" si="2"/>
         <v>-0.69000000000000128</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="26">
         <v>184361</v>
       </c>
       <c r="F153" s="9">
         <v>304068</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>36479</v>
       </c>
@@ -16504,14 +16884,14 @@
         <f t="shared" si="2"/>
         <v>-0.42000000000000171</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="26">
         <v>178811</v>
       </c>
       <c r="F154" s="9">
         <v>298327</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>36509</v>
       </c>
@@ -16525,14 +16905,14 @@
         <f t="shared" si="2"/>
         <v>-0.63000000000000256</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="26">
         <v>184716</v>
       </c>
       <c r="F155" s="9">
         <v>284482</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>36540</v>
       </c>
@@ -16546,14 +16926,14 @@
         <f t="shared" si="2"/>
         <v>-1.75</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="26">
         <v>179316</v>
       </c>
       <c r="F156" s="9">
         <v>283877</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>36571</v>
       </c>
@@ -16567,14 +16947,14 @@
         <f t="shared" si="2"/>
         <v>-1.5899999999999999</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="26">
         <v>169703</v>
       </c>
       <c r="F157" s="9">
         <v>285847</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>36600</v>
       </c>
@@ -16588,14 +16968,14 @@
         <f t="shared" si="2"/>
         <v>-2.3500000000000014</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="26">
         <v>183464</v>
       </c>
       <c r="F158" s="9">
         <v>297087</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>36631</v>
       </c>
@@ -16609,14 +16989,14 @@
         <f t="shared" si="2"/>
         <v>-2.9599999999999973</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="26">
         <v>175625</v>
       </c>
       <c r="F159" s="9">
         <v>303833</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>36661</v>
       </c>
@@ -16630,14 +17010,14 @@
         <f t="shared" si="2"/>
         <v>-1.0500000000000007</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="26">
         <v>181242</v>
       </c>
       <c r="F160" s="9">
         <v>294712</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>36692</v>
       </c>
@@ -16651,14 +17031,14 @@
         <f t="shared" si="2"/>
         <v>-2.0199999999999996</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="26">
         <v>174686</v>
       </c>
       <c r="F161" s="9">
         <v>290623</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>36722</v>
       </c>
@@ -16672,14 +17052,14 @@
         <f t="shared" si="2"/>
         <v>-1.0199999999999996</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="26">
         <v>177920</v>
       </c>
       <c r="F162" s="9">
         <v>282190</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>36753</v>
       </c>
@@ -16693,14 +17073,14 @@
         <f t="shared" si="2"/>
         <v>-1.0600000000000023</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="26">
         <v>179451</v>
       </c>
       <c r="F163" s="9">
         <v>287287</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>36784</v>
       </c>
@@ -16714,14 +17094,14 @@
         <f t="shared" si="2"/>
         <v>-0.74000000000000199</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="26">
         <v>172731</v>
       </c>
       <c r="F164" s="9">
         <v>277893</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>36814</v>
       </c>
@@ -16735,14 +17115,14 @@
         <f t="shared" si="2"/>
         <v>-2.1499999999999986</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="26">
         <v>180080</v>
       </c>
       <c r="F165" s="9">
         <v>277879</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>36845</v>
       </c>
@@ -16756,14 +17136,14 @@
         <f t="shared" si="2"/>
         <v>-1.8700000000000045</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="26">
         <v>174980</v>
       </c>
       <c r="F166" s="9">
         <v>286441</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>36875</v>
       </c>
@@ -16777,14 +17157,14 @@
         <f t="shared" si="2"/>
         <v>-2.7800000000000011</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="26">
         <v>181508</v>
       </c>
       <c r="F167" s="9">
         <v>285507</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>36906</v>
       </c>
@@ -16798,14 +17178,14 @@
         <f t="shared" si="2"/>
         <v>-3.9699999999999989</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="26">
         <v>179767</v>
       </c>
       <c r="F168" s="9">
         <v>294327</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>36937</v>
       </c>
@@ -16819,14 +17199,14 @@
         <f t="shared" si="2"/>
         <v>-2.1099999999999994</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="26">
         <v>161843</v>
       </c>
       <c r="F169" s="9">
         <v>282467</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>36965</v>
       </c>
@@ -16840,14 +17220,14 @@
         <f t="shared" si="2"/>
         <v>-2.75</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="26">
         <v>182290</v>
       </c>
       <c r="F170" s="9">
         <v>308544</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>36996</v>
       </c>
@@ -16861,14 +17241,14 @@
         <f t="shared" si="2"/>
         <v>-1.8299999999999983</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="26">
         <v>175879</v>
       </c>
       <c r="F171" s="9">
         <v>330577</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>37026</v>
       </c>
@@ -16882,14 +17262,14 @@
         <f t="shared" si="2"/>
         <v>-0.32000000000000028</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="26">
         <v>180712</v>
       </c>
       <c r="F172" s="9">
         <v>328364</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>37057</v>
       </c>
@@ -16903,14 +17283,14 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="26">
         <v>172974</v>
       </c>
       <c r="F173" s="9">
         <v>308249</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>37087</v>
       </c>
@@ -16924,14 +17304,14 @@
         <f t="shared" si="2"/>
         <v>-1.8200000000000003</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="26">
         <v>178208</v>
       </c>
       <c r="F174" s="9">
         <v>312883</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>37118</v>
       </c>
@@ -16945,14 +17325,14 @@
         <f t="shared" si="2"/>
         <v>-1.6900000000000013</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="26">
         <v>177488</v>
       </c>
       <c r="F175" s="9">
         <v>307935</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>37149</v>
       </c>
@@ -16966,14 +17346,14 @@
         <f t="shared" si="2"/>
         <v>-0.57999999999999829</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="26">
         <v>171270</v>
       </c>
       <c r="F176" s="9">
         <v>309287</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>37179</v>
       </c>
@@ -16987,14 +17367,14 @@
         <f t="shared" si="2"/>
         <v>-1.6300000000000026</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="26">
         <v>178129</v>
       </c>
       <c r="F177" s="9">
         <v>313234</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>37210</v>
       </c>
@@ -17008,14 +17388,14 @@
         <f t="shared" si="2"/>
         <v>-0.83999999999999986</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="26">
         <v>176441</v>
       </c>
       <c r="F178" s="9">
         <v>312190</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>37240</v>
       </c>
@@ -17029,14 +17409,14 @@
         <f t="shared" si="2"/>
         <v>-0.67999999999999972</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="26">
         <v>182511</v>
       </c>
       <c r="F179" s="9">
         <v>311980</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>37271</v>
       </c>
@@ -17050,14 +17430,14 @@
         <f t="shared" si="2"/>
         <v>-0.29999999999999716</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="26">
         <v>182076</v>
       </c>
       <c r="F180" s="9">
         <v>320302</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>37302</v>
       </c>
@@ -17071,14 +17451,14 @@
         <f t="shared" si="2"/>
         <v>-0.43999999999999773</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="26">
         <v>164666</v>
       </c>
       <c r="F181" s="9">
         <v>327357</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>37330</v>
       </c>
@@ -17092,14 +17472,14 @@
         <f t="shared" si="2"/>
         <v>-0.83000000000000185</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="26">
         <v>182460</v>
       </c>
       <c r="F182" s="9">
         <v>333504</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>37361</v>
       </c>
@@ -17113,14 +17493,14 @@
         <f t="shared" si="2"/>
         <v>-0.44999999999999929</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="26">
         <v>175333</v>
       </c>
       <c r="F183" s="9">
         <v>324649</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>37391</v>
       </c>
@@ -17134,14 +17514,14 @@
         <f t="shared" si="2"/>
         <v>-1.6899999999999977</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="26">
         <v>183057</v>
       </c>
       <c r="F184" s="9">
         <v>327029</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>37422</v>
       </c>
@@ -17155,14 +17535,14 @@
         <f t="shared" si="2"/>
         <v>-1.4400000000000013</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="26">
         <v>176532</v>
       </c>
       <c r="F185" s="9">
         <v>317554</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>37452</v>
       </c>
@@ -17176,14 +17556,14 @@
         <f t="shared" si="2"/>
         <v>-1.2300000000000004</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="26">
         <v>178275</v>
       </c>
       <c r="F186" s="9">
         <v>304274</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>37483</v>
       </c>
@@ -17197,14 +17577,14 @@
         <f t="shared" si="2"/>
         <v>-1.740000000000002</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="26">
         <v>179670</v>
       </c>
       <c r="F187" s="9">
         <v>296217</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>37514</v>
       </c>
@@ -17218,14 +17598,14 @@
         <f t="shared" si="2"/>
         <v>-1.2600000000000016</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="26">
         <v>162336</v>
       </c>
       <c r="F188" s="9">
         <v>270647</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>37544</v>
       </c>
@@ -17239,14 +17619,14 @@
         <f t="shared" si="2"/>
         <v>-1.3000000000000007</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="26">
         <v>166105</v>
       </c>
       <c r="F189" s="9">
         <v>291471</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>37575</v>
       </c>
@@ -17260,14 +17640,14 @@
         <f t="shared" si="2"/>
         <v>-2.0100000000000016</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="26">
         <v>168706</v>
       </c>
       <c r="F190" s="9">
         <v>288067</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>37605</v>
       </c>
@@ -17281,14 +17661,14 @@
         <f t="shared" si="2"/>
         <v>-1.1300000000000026</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="26">
         <v>177372</v>
       </c>
       <c r="F191" s="9">
         <v>277614</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>37636</v>
       </c>
@@ -17302,14 +17682,14 @@
         <f t="shared" si="2"/>
         <v>-1.7700000000000031</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="26">
         <v>178412</v>
       </c>
       <c r="F192" s="9">
         <v>274045</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>37667</v>
       </c>
@@ -17323,14 +17703,14 @@
         <f t="shared" si="2"/>
         <v>-3.0599999999999952</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="26">
         <v>161920</v>
       </c>
       <c r="F193" s="9">
         <v>271086</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>37695</v>
       </c>
@@ -17344,14 +17724,14 @@
         <f t="shared" si="2"/>
         <v>-2.8999999999999986</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="26">
         <v>179907</v>
       </c>
       <c r="F194" s="9">
         <v>281587</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>37726</v>
       </c>
@@ -17365,14 +17745,14 @@
         <f t="shared" si="2"/>
         <v>-3.1700000000000017</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="26">
         <v>171774</v>
       </c>
       <c r="F195" s="9">
         <v>291375</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>37756</v>
       </c>
@@ -17386,14 +17766,14 @@
         <f t="shared" si="2"/>
         <v>-2.25</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="26">
         <v>175568</v>
       </c>
       <c r="F196" s="9">
         <v>285523</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>37787</v>
       </c>
@@ -17407,14 +17787,14 @@
         <f t="shared" ref="D197:D260" si="3">B197-C197</f>
         <v>-3.0100000000000016</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="26">
         <v>169772</v>
       </c>
       <c r="F197" s="9">
         <v>284594</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>37817</v>
       </c>
@@ -17428,14 +17808,14 @@
         <f t="shared" si="3"/>
         <v>-2.41</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="26">
         <v>170452</v>
       </c>
       <c r="F198" s="9">
         <v>284922</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>37848</v>
       </c>
@@ -17449,14 +17829,14 @@
         <f t="shared" si="3"/>
         <v>-1.6799999999999997</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="26">
         <v>172787</v>
       </c>
       <c r="F199" s="9">
         <v>279495</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>37879</v>
       </c>
@@ -17470,14 +17850,14 @@
         <f t="shared" si="3"/>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="26">
         <v>168270</v>
       </c>
       <c r="F200" s="9">
         <v>286656</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>37909</v>
       </c>
@@ -17491,14 +17871,14 @@
         <f t="shared" si="3"/>
         <v>-0.73000000000000043</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="26">
         <v>174020</v>
       </c>
       <c r="F201" s="9">
         <v>294644</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>37940</v>
       </c>
@@ -17512,14 +17892,14 @@
         <f t="shared" si="3"/>
         <v>-2.3599999999999994</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="26">
         <v>166397</v>
       </c>
       <c r="F202" s="9">
         <v>281226</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>37970</v>
       </c>
@@ -17533,14 +17913,14 @@
         <f t="shared" si="3"/>
         <v>-2.3200000000000038</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="26">
         <v>172715</v>
       </c>
       <c r="F203" s="9">
         <v>268875</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>38001</v>
       </c>
@@ -17554,14 +17934,14 @@
         <f t="shared" si="3"/>
         <v>-3.0300000000000011</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="26">
         <v>173132</v>
       </c>
       <c r="F204" s="9">
         <v>271606</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>38032</v>
       </c>
@@ -17575,14 +17955,14 @@
         <f t="shared" si="3"/>
         <v>-3.8299999999999983</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="26">
         <v>161583</v>
       </c>
       <c r="F205" s="9">
         <v>284315</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>38061</v>
       </c>
@@ -17596,14 +17976,14 @@
         <f t="shared" si="3"/>
         <v>-3.1099999999999994</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="26">
         <v>174115</v>
       </c>
       <c r="F206" s="9">
         <v>297348</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>38092</v>
       </c>
@@ -17617,14 +17997,14 @@
         <f t="shared" si="3"/>
         <v>-3.1599999999999966</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="26">
         <v>166810</v>
       </c>
       <c r="F207" s="9">
         <v>303300</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>38122</v>
       </c>
@@ -17638,14 +18018,14 @@
         <f t="shared" si="3"/>
         <v>-2.7100000000000009</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="26">
         <v>172235</v>
       </c>
       <c r="F208" s="9">
         <v>304508</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>38153</v>
       </c>
@@ -17659,14 +18039,14 @@
         <f t="shared" si="3"/>
         <v>-2.8500000000000014</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="26">
         <v>162208</v>
       </c>
       <c r="F209" s="9">
         <v>304845</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>38183</v>
       </c>
@@ -17680,14 +18060,14 @@
         <f t="shared" si="3"/>
         <v>-2.5600000000000023</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="26">
         <v>170011</v>
       </c>
       <c r="F210" s="9">
         <v>294424</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>38214</v>
       </c>
@@ -17701,14 +18081,14 @@
         <f t="shared" si="3"/>
         <v>-2.1599999999999966</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="26">
         <v>165072</v>
       </c>
       <c r="F211" s="9">
         <v>278644</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>38245</v>
       </c>
@@ -17722,14 +18102,14 @@
         <f t="shared" si="3"/>
         <v>-2.7399999999999949</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="26">
         <v>152444</v>
       </c>
       <c r="F212" s="9">
         <v>272951</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>38275</v>
       </c>
@@ -17743,14 +18123,14 @@
         <f t="shared" si="3"/>
         <v>-3.5</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="26">
         <v>160270</v>
       </c>
       <c r="F213" s="9">
         <v>286666</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>38306</v>
       </c>
@@ -17764,14 +18144,14 @@
         <f t="shared" si="3"/>
         <v>-5.3599999999999994</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="26">
         <v>162699</v>
       </c>
       <c r="F214" s="9">
         <v>288238</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>38336</v>
       </c>
@@ -17785,14 +18165,14 @@
         <f t="shared" si="3"/>
         <v>-3.5499999999999972</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="26">
         <v>170815</v>
       </c>
       <c r="F215" s="9">
         <v>285741</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>38367</v>
       </c>
@@ -17806,14 +18186,14 @@
         <f t="shared" si="3"/>
         <v>-2.3300000000000054</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="26">
         <v>168831</v>
       </c>
-      <c r="F216" s="9">
+      <c r="F216" s="26">
         <v>270314</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>38398</v>
       </c>
@@ -17827,14 +18207,14 @@
         <f t="shared" si="3"/>
         <v>-2.6700000000000017</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="26">
         <v>154038</v>
       </c>
-      <c r="F217" s="9">
+      <c r="F217" s="26">
         <v>286010</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>38426</v>
       </c>
@@ -17848,14 +18228,14 @@
         <f t="shared" si="3"/>
         <v>-1.0899999999999963</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="26">
         <v>173626</v>
       </c>
-      <c r="F218" s="9">
+      <c r="F218" s="26">
         <v>303506</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>38457</v>
       </c>
@@ -17869,14 +18249,14 @@
         <f t="shared" si="3"/>
         <v>-1.0999999999999943</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="26">
         <v>166885</v>
       </c>
-      <c r="F219" s="9">
+      <c r="F219" s="26">
         <v>321717</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>38487</v>
       </c>
@@ -17890,14 +18270,14 @@
         <f t="shared" si="3"/>
         <v>-1.1799999999999997</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="26">
         <v>173491</v>
       </c>
-      <c r="F220" s="9">
+      <c r="F220" s="26">
         <v>320029</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>38518</v>
       </c>
@@ -17911,14 +18291,14 @@
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="26">
         <v>163263</v>
       </c>
-      <c r="F221" s="9">
+      <c r="F221" s="26">
         <v>311882</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>38548</v>
       </c>
@@ -17932,14 +18312,14 @@
         <f t="shared" si="3"/>
         <v>-1.4799999999999969</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="26">
         <v>162854</v>
       </c>
-      <c r="F222" s="9">
+      <c r="F222" s="26">
         <v>302400</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>38579</v>
       </c>
@@ -17953,14 +18333,14 @@
         <f t="shared" si="3"/>
         <v>-1.009999999999998</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="26">
         <v>161153</v>
       </c>
-      <c r="F223" s="9">
+      <c r="F223" s="26">
         <v>293574</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>38610</v>
       </c>
@@ -17974,14 +18354,14 @@
         <f t="shared" si="3"/>
         <v>-2.6800000000000068</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="26">
         <v>126417</v>
       </c>
-      <c r="F224" s="9">
+      <c r="F224" s="26">
         <v>290327</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>38640</v>
       </c>
@@ -17995,14 +18375,14 @@
         <f t="shared" si="3"/>
         <v>-3.7199999999999989</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="26">
         <v>141200</v>
       </c>
-      <c r="F225" s="9">
+      <c r="F225" s="26">
         <v>306035</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>38671</v>
       </c>
@@ -18016,14 +18396,14 @@
         <f t="shared" si="3"/>
         <v>-3.0799999999999983</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="26">
         <v>145708</v>
       </c>
-      <c r="F226" s="9">
+      <c r="F226" s="26">
         <v>306323</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>38701</v>
       </c>
@@ -18037,14 +18417,14 @@
         <f t="shared" si="3"/>
         <v>-2.5499999999999972</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="26">
         <v>154630</v>
       </c>
-      <c r="F227" s="9">
+      <c r="F227" s="26">
         <v>307651</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>38732</v>
       </c>
@@ -18058,14 +18438,14 @@
         <f t="shared" si="3"/>
         <v>-2.4999999999999929</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="26">
         <v>156480</v>
       </c>
-      <c r="F228" s="9">
+      <c r="F228" s="26">
         <v>307204</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>38763</v>
       </c>
@@ -18079,14 +18459,14 @@
         <f t="shared" si="3"/>
         <v>-1.4200000000000017</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="26">
         <v>140894</v>
       </c>
-      <c r="F229" s="9">
+      <c r="F229" s="26">
         <v>326383</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>38791</v>
       </c>
@@ -18100,14 +18480,14 @@
         <f t="shared" si="3"/>
         <v>-0.62999999999999545</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="26">
         <v>155842</v>
       </c>
-      <c r="F230" s="9">
+      <c r="F230" s="26">
         <v>326417</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>38822</v>
       </c>
@@ -18121,14 +18501,14 @@
         <f t="shared" si="3"/>
         <v>0.82000000000000739</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="26">
         <v>152450</v>
       </c>
-      <c r="F231" s="9">
+      <c r="F231" s="26">
         <v>331258</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>38852</v>
       </c>
@@ -18142,14 +18522,14 @@
         <f t="shared" si="3"/>
         <v>-1.0600000000000023</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="26">
         <v>159667</v>
       </c>
-      <c r="F232" s="9">
+      <c r="F232" s="26">
         <v>324286</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>38883</v>
       </c>
@@ -18163,14 +18543,14 @@
         <f t="shared" si="3"/>
         <v>-2.3900000000000006</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="26">
         <v>154884</v>
       </c>
-      <c r="F233" s="9">
+      <c r="F233" s="26">
         <v>320523</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>38913</v>
       </c>
@@ -18184,14 +18564,14 @@
         <f t="shared" si="3"/>
         <v>-0.73999999999999488</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="26">
         <v>157919</v>
       </c>
-      <c r="F234" s="9">
+      <c r="F234" s="26">
         <v>315387</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>38944</v>
       </c>
@@ -18205,14 +18585,14 @@
         <f t="shared" si="3"/>
         <v>0.18999999999999773</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="26">
         <v>156232</v>
       </c>
-      <c r="F235" s="9">
+      <c r="F235" s="26">
         <v>316622</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>38975</v>
       </c>
@@ -18226,14 +18606,14 @@
         <f t="shared" si="3"/>
         <v>-1.8399999999999963</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="26">
         <v>150926</v>
       </c>
-      <c r="F236" s="9">
+      <c r="F236" s="26">
         <v>316599</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>39005</v>
       </c>
@@ -18247,14 +18627,14 @@
         <f t="shared" si="3"/>
         <v>-1.0799999999999983</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="26">
         <v>158353</v>
       </c>
-      <c r="F237" s="9">
+      <c r="F237" s="26">
         <v>322917</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>39036</v>
       </c>
@@ -18268,14 +18648,14 @@
         <f t="shared" si="3"/>
         <v>-0.32000000000000028</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="26">
         <v>151926</v>
       </c>
-      <c r="F238" s="9">
+      <c r="F238" s="26">
         <v>318184</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>39066</v>
       </c>
@@ -18289,14 +18669,14 @@
         <f t="shared" si="3"/>
         <v>0.50999999999999801</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="26">
         <v>160768</v>
       </c>
-      <c r="F239" s="9">
+      <c r="F239" s="26">
         <v>295819</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>39097</v>
       </c>
@@ -18310,14 +18690,14 @@
         <f t="shared" si="3"/>
         <v>-0.82999999999999829</v>
       </c>
-      <c r="E240">
-        <v>158227</v>
-      </c>
-      <c r="F240" s="9">
+      <c r="E240" s="26">
+        <v>158342</v>
+      </c>
+      <c r="F240" s="26">
         <v>307333</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>39128</v>
       </c>
@@ -18331,14 +18711,14 @@
         <f t="shared" si="3"/>
         <v>-1.7199999999999989</v>
       </c>
-      <c r="E241">
-        <v>143294</v>
-      </c>
-      <c r="F241" s="9">
+      <c r="E241" s="26">
+        <v>143301</v>
+      </c>
+      <c r="F241" s="26">
         <v>300287</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>39156</v>
       </c>
@@ -18352,14 +18732,14 @@
         <f t="shared" si="3"/>
         <v>1.6099999999999994</v>
       </c>
-      <c r="E242">
-        <v>158698</v>
-      </c>
-      <c r="F242" s="9">
+      <c r="E242" s="26">
+        <v>158697</v>
+      </c>
+      <c r="F242" s="26">
         <v>313541</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>39187</v>
       </c>
@@ -18373,14 +18753,14 @@
         <f t="shared" si="3"/>
         <v>3.509999999999998</v>
       </c>
-      <c r="E243">
-        <v>155500</v>
-      </c>
-      <c r="F243" s="9">
+      <c r="E243" s="26">
+        <v>155407</v>
+      </c>
+      <c r="F243" s="26">
         <v>324791</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>39217</v>
       </c>
@@ -18394,14 +18774,14 @@
         <f t="shared" si="3"/>
         <v>3.7499999999999929</v>
       </c>
-      <c r="E244">
-        <v>161337</v>
-      </c>
-      <c r="F244" s="9">
+      <c r="E244" s="26">
+        <v>161548</v>
+      </c>
+      <c r="F244" s="26">
         <v>336088</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>39248</v>
       </c>
@@ -18415,14 +18795,14 @@
         <f t="shared" si="3"/>
         <v>3.5600000000000023</v>
       </c>
-      <c r="E245">
-        <v>152143</v>
-      </c>
-      <c r="F245" s="9">
+      <c r="E245" s="26">
+        <v>152254</v>
+      </c>
+      <c r="F245" s="26">
         <v>336953</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>39278</v>
       </c>
@@ -18436,14 +18816,14 @@
         <f t="shared" si="3"/>
         <v>2.8100000000000023</v>
       </c>
-      <c r="E246">
-        <v>156139</v>
-      </c>
-      <c r="F246" s="9">
+      <c r="E246" s="26">
+        <v>156175</v>
+      </c>
+      <c r="F246" s="26">
         <v>319480</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>39309</v>
       </c>
@@ -18457,14 +18837,14 @@
         <f t="shared" si="3"/>
         <v>-1.5999999999999943</v>
       </c>
-      <c r="E247">
-        <v>154508</v>
-      </c>
-      <c r="F247" s="9">
+      <c r="E247" s="26">
+        <v>154060</v>
+      </c>
+      <c r="F247" s="26">
         <v>303470</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>39340</v>
       </c>
@@ -18478,14 +18858,14 @@
         <f t="shared" si="3"/>
         <v>-2.75</v>
       </c>
-      <c r="E248">
-        <v>147050</v>
-      </c>
-      <c r="F248" s="9">
+      <c r="E248" s="26">
+        <v>147061</v>
+      </c>
+      <c r="F248" s="26">
         <v>294041</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>39370</v>
       </c>
@@ -18499,14 +18879,14 @@
         <f t="shared" si="3"/>
         <v>-3.4599999999999937</v>
       </c>
-      <c r="E249">
-        <v>156674</v>
-      </c>
-      <c r="F249" s="9">
+      <c r="E249" s="26">
+        <v>155680</v>
+      </c>
+      <c r="F249" s="26">
         <v>290033</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>39401</v>
       </c>
@@ -18520,14 +18900,14 @@
         <f t="shared" si="3"/>
         <v>-2.3599999999999994</v>
       </c>
-      <c r="E250">
-        <v>151052</v>
-      </c>
-      <c r="F250" s="9">
+      <c r="E250" s="26">
+        <v>151021</v>
+      </c>
+      <c r="F250" s="26">
         <v>282180</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>39431</v>
       </c>
@@ -18541,14 +18921,14 @@
         <f t="shared" si="3"/>
         <v>-0.75999999999999091</v>
       </c>
-      <c r="E251">
-        <v>158368</v>
-      </c>
-      <c r="F251" s="9">
+      <c r="E251" s="26">
+        <v>158427</v>
+      </c>
+      <c r="F251" s="26">
         <v>268393</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>39462</v>
       </c>
@@ -18562,14 +18942,14 @@
         <f t="shared" si="3"/>
         <v>-0.78999999999999204</v>
       </c>
-      <c r="E252">
-        <v>158503</v>
-      </c>
-      <c r="F252" s="9">
+      <c r="E252" s="26">
+        <v>158562</v>
+      </c>
+      <c r="F252" s="26">
         <v>278727</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>39493</v>
       </c>
@@ -18583,14 +18963,14 @@
         <f t="shared" si="3"/>
         <v>-0.40000000000000568</v>
       </c>
-      <c r="E253">
-        <v>149259</v>
-      </c>
-      <c r="F253" s="9">
+      <c r="E253" s="26">
+        <v>149090</v>
+      </c>
+      <c r="F253" s="26">
         <v>284627</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>39522</v>
       </c>
@@ -18604,14 +18984,14 @@
         <f t="shared" si="3"/>
         <v>-1.8100000000000023</v>
       </c>
-      <c r="E254">
-        <v>160961</v>
-      </c>
-      <c r="F254" s="9">
+      <c r="E254" s="26">
+        <v>160960</v>
+      </c>
+      <c r="F254" s="26">
         <v>297218</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>39553</v>
       </c>
@@ -18625,14 +19005,14 @@
         <f t="shared" si="3"/>
         <v>-3.5100000000000051</v>
       </c>
-      <c r="E255">
-        <v>154669</v>
-      </c>
-      <c r="F255" s="9">
+      <c r="E255" s="26">
+        <v>155217</v>
+      </c>
+      <c r="F255" s="26">
         <v>302239</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>39583</v>
       </c>
@@ -18646,14 +19026,14 @@
         <f t="shared" si="3"/>
         <v>-2.6000000000000085</v>
       </c>
-      <c r="E256">
-        <v>159453</v>
-      </c>
-      <c r="F256" s="9">
+      <c r="E256" s="26">
+        <v>159467</v>
+      </c>
+      <c r="F256" s="26">
         <v>286150</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>39614</v>
       </c>
@@ -18667,14 +19047,14 @@
         <f t="shared" si="3"/>
         <v>-1.5600000000000023</v>
       </c>
-      <c r="E257">
-        <v>154129</v>
-      </c>
-      <c r="F257" s="9">
+      <c r="E257" s="26">
+        <v>154054</v>
+      </c>
+      <c r="F257" s="26">
         <v>278254</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>39644</v>
       </c>
@@ -18688,14 +19068,14 @@
         <f t="shared" si="3"/>
         <v>-0.65000000000000568</v>
       </c>
-      <c r="E258">
-        <v>160512</v>
-      </c>
-      <c r="F258" s="9">
+      <c r="E258" s="26">
+        <v>160433</v>
+      </c>
+      <c r="F258" s="26">
         <v>277848</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>39675</v>
       </c>
@@ -18709,14 +19089,14 @@
         <f t="shared" si="3"/>
         <v>-3.4300000000000068</v>
       </c>
-      <c r="E259">
-        <v>155184</v>
-      </c>
-      <c r="F259" s="9">
+      <c r="E259" s="26">
+        <v>154912</v>
+      </c>
+      <c r="F259" s="26">
         <v>285014</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>39706</v>
       </c>
@@ -18730,14 +19110,14 @@
         <f t="shared" si="3"/>
         <v>-6.8799999999999955</v>
       </c>
-      <c r="E260">
-        <v>119373</v>
-      </c>
-      <c r="F260" s="9">
+      <c r="E260" s="26">
+        <v>119128</v>
+      </c>
+      <c r="F260" s="26">
         <v>286462</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>39736</v>
       </c>
@@ -18751,14 +19131,14 @@
         <f t="shared" ref="D261:D324" si="4">B261-C261</f>
         <v>-5.0300000000000011</v>
       </c>
-      <c r="E261">
-        <v>146893</v>
-      </c>
-      <c r="F261" s="9">
+      <c r="E261" s="26">
+        <v>146858</v>
+      </c>
+      <c r="F261" s="26">
         <v>295160</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>39767</v>
       </c>
@@ -18772,14 +19152,14 @@
         <f t="shared" si="4"/>
         <v>-4.8599999999999994</v>
       </c>
-      <c r="E262">
-        <v>152570</v>
-      </c>
-      <c r="F262" s="9">
+      <c r="E262" s="26">
+        <v>152216</v>
+      </c>
+      <c r="F262" s="26">
         <v>304011</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>39797</v>
       </c>
@@ -18793,14 +19173,14 @@
         <f t="shared" si="4"/>
         <v>-1.1699999999999946</v>
       </c>
-      <c r="E263">
-        <v>158478</v>
-      </c>
-      <c r="F263" s="9">
+      <c r="E263" s="26">
+        <v>158237</v>
+      </c>
+      <c r="F263" s="26">
         <v>308245</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>39828</v>
       </c>
@@ -18814,14 +19194,14 @@
         <f t="shared" si="4"/>
         <v>1.7299999999999969</v>
       </c>
-      <c r="E264">
-        <v>159410</v>
-      </c>
-      <c r="F264" s="9">
+      <c r="E264" s="26">
+        <v>159293</v>
+      </c>
+      <c r="F264" s="26">
         <v>333154</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>39859</v>
       </c>
@@ -18835,14 +19215,14 @@
         <f t="shared" si="4"/>
         <v>4.2299999999999969</v>
       </c>
-      <c r="E265">
-        <v>146808</v>
-      </c>
-      <c r="F265" s="9">
+      <c r="E265" s="26">
+        <v>146579</v>
+      </c>
+      <c r="F265" s="26">
         <v>339285</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>39887</v>
       </c>
@@ -18856,14 +19236,14 @@
         <f t="shared" si="4"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="E266">
-        <v>161697</v>
-      </c>
-      <c r="F266" s="9">
+      <c r="E266" s="26">
+        <v>161507</v>
+      </c>
+      <c r="F266" s="26">
         <v>348428</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>39918</v>
       </c>
@@ -18877,14 +19257,14 @@
         <f t="shared" si="4"/>
         <v>0.53000000000000114</v>
       </c>
-      <c r="E267">
-        <v>158556</v>
-      </c>
-      <c r="F267" s="9">
+      <c r="E267" s="26">
+        <v>158296</v>
+      </c>
+      <c r="F267" s="26">
         <v>352171</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>39948</v>
       </c>
@@ -18898,14 +19278,14 @@
         <f t="shared" si="4"/>
         <v>-1.730000000000004</v>
       </c>
-      <c r="E268">
-        <v>166854</v>
-      </c>
-      <c r="F268" s="9">
+      <c r="E268" s="26">
+        <v>166560</v>
+      </c>
+      <c r="F268" s="26">
         <v>341106</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>39979</v>
       </c>
@@ -18919,14 +19299,14 @@
         <f t="shared" si="4"/>
         <v>-1.0300000000000011</v>
       </c>
-      <c r="E269">
-        <v>158193</v>
-      </c>
-      <c r="F269" s="9">
+      <c r="E269" s="26">
+        <v>157887</v>
+      </c>
+      <c r="F269" s="26">
         <v>328657</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>40009</v>
       </c>
@@ -18940,14 +19320,14 @@
         <f t="shared" si="4"/>
         <v>0.28999999999999204</v>
       </c>
-      <c r="E270">
-        <v>167360</v>
-      </c>
-      <c r="F270" s="9">
+      <c r="E270" s="26">
+        <v>167007</v>
+      </c>
+      <c r="F270" s="26">
         <v>327214</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>40040</v>
       </c>
@@ -18961,14 +19341,14 @@
         <f t="shared" si="4"/>
         <v>1.460000000000008</v>
       </c>
-      <c r="E271">
-        <v>166547</v>
-      </c>
-      <c r="F271" s="9">
+      <c r="E271" s="26">
+        <v>167592</v>
+      </c>
+      <c r="F271" s="26">
         <v>317546</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>40071</v>
       </c>
@@ -18982,14 +19362,14 @@
         <f t="shared" si="4"/>
         <v>-1.7599999999999909</v>
       </c>
-      <c r="E272">
-        <v>166823</v>
-      </c>
-      <c r="F272" s="9">
+      <c r="E272" s="26">
+        <v>166631</v>
+      </c>
+      <c r="F272" s="26">
         <v>317074</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>40101</v>
       </c>
@@ -19003,14 +19383,14 @@
         <f t="shared" si="4"/>
         <v>-2.9500000000000028</v>
       </c>
-      <c r="E273">
-        <v>171042</v>
-      </c>
-      <c r="F273" s="9">
+      <c r="E273" s="26">
+        <v>170936</v>
+      </c>
+      <c r="F273" s="26">
         <v>314409</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>40132</v>
       </c>
@@ -19024,14 +19404,14 @@
         <f t="shared" si="4"/>
         <v>-1.3299999999999983</v>
       </c>
-      <c r="E274">
-        <v>161585</v>
-      </c>
-      <c r="F274" s="9">
+      <c r="E274" s="26">
+        <v>161307</v>
+      </c>
+      <c r="F274" s="26">
         <v>318846</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>40162</v>
       </c>
@@ -19045,14 +19425,14 @@
         <f t="shared" si="4"/>
         <v>-1.0000000000005116E-2</v>
       </c>
-      <c r="E275">
-        <v>168984</v>
-      </c>
-      <c r="F275" s="9">
+      <c r="E275" s="26">
+        <v>168641</v>
+      </c>
+      <c r="F275" s="26">
         <v>307140</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>40193</v>
       </c>
@@ -19066,14 +19446,14 @@
         <f t="shared" si="4"/>
         <v>-2.1599999999999966</v>
       </c>
-      <c r="E276">
-        <v>167078</v>
-      </c>
-      <c r="F276" s="9">
+      <c r="E276" s="26">
+        <v>167107</v>
+      </c>
+      <c r="F276" s="26">
         <v>316104</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>40224</v>
       </c>
@@ -19087,14 +19467,14 @@
         <f t="shared" si="4"/>
         <v>-2.6400000000000006</v>
       </c>
-      <c r="E277">
-        <v>155250</v>
-      </c>
-      <c r="F277" s="9">
+      <c r="E277" s="26">
+        <v>155293</v>
+      </c>
+      <c r="F277" s="26">
         <v>322375</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>40252</v>
       </c>
@@ -19108,14 +19488,14 @@
         <f t="shared" si="4"/>
         <v>-2.3700000000000045</v>
       </c>
-      <c r="E278">
-        <v>170567</v>
-      </c>
-      <c r="F278" s="9">
+      <c r="E278" s="26">
+        <v>170575</v>
+      </c>
+      <c r="F278" s="26">
         <v>338442</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>40283</v>
       </c>
@@ -19129,14 +19509,14 @@
         <f t="shared" si="4"/>
         <v>0.52999999999998693</v>
       </c>
-      <c r="E279">
-        <v>161430</v>
-      </c>
-      <c r="F279" s="9">
+      <c r="E279" s="26">
+        <v>161431</v>
+      </c>
+      <c r="F279" s="26">
         <v>342635</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>40313</v>
       </c>
@@ -19150,14 +19530,14 @@
         <f t="shared" si="4"/>
         <v>2.210000000000008</v>
       </c>
-      <c r="E280">
-        <v>167024</v>
-      </c>
-      <c r="F280" s="9">
+      <c r="E280" s="26">
+        <v>167052</v>
+      </c>
+      <c r="F280" s="26">
         <v>341282</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>40344</v>
       </c>
@@ -19171,14 +19551,14 @@
         <f t="shared" si="4"/>
         <v>-0.57999999999999829</v>
       </c>
-      <c r="E281">
-        <v>161325</v>
-      </c>
-      <c r="F281" s="9">
+      <c r="E281" s="26">
+        <v>161404</v>
+      </c>
+      <c r="F281" s="26">
         <v>344988</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>40374</v>
       </c>
@@ -19192,14 +19572,14 @@
         <f t="shared" si="4"/>
         <v>-0.73999999999999488</v>
       </c>
-      <c r="E282">
-        <v>164196</v>
-      </c>
-      <c r="F282" s="9">
+      <c r="E282" s="26">
+        <v>164203</v>
+      </c>
+      <c r="F282" s="26">
         <v>337017</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>40405</v>
       </c>
@@ -19213,14 +19593,14 @@
         <f t="shared" si="4"/>
         <v>0.44000000000001194</v>
       </c>
-      <c r="E283">
-        <v>168607</v>
-      </c>
-      <c r="F283" s="9">
+      <c r="E283" s="26">
+        <v>168640</v>
+      </c>
+      <c r="F283" s="26">
         <v>338719</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>40436</v>
       </c>
@@ -19234,14 +19614,14 @@
         <f t="shared" si="4"/>
         <v>2.6000000000000085</v>
       </c>
-      <c r="E284">
-        <v>168233</v>
-      </c>
-      <c r="F284" s="9">
+      <c r="E284" s="26">
+        <v>168270</v>
+      </c>
+      <c r="F284" s="26">
         <v>342318</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>40466</v>
       </c>
@@ -19255,14 +19635,14 @@
         <f t="shared" si="4"/>
         <v>0.78000000000000114</v>
       </c>
-      <c r="E285">
-        <v>174182</v>
-      </c>
-      <c r="F285" s="9">
+      <c r="E285" s="26">
+        <v>174188</v>
+      </c>
+      <c r="F285" s="26">
         <v>346830</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>40497</v>
       </c>
@@ -19276,14 +19656,14 @@
         <f t="shared" si="4"/>
         <v>1.0300000000000011</v>
       </c>
-      <c r="E286">
-        <v>166981</v>
-      </c>
-      <c r="F286" s="9">
+      <c r="E286" s="26">
+        <v>166838</v>
+      </c>
+      <c r="F286" s="26">
         <v>331442</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>40527</v>
       </c>
@@ -19297,14 +19677,14 @@
         <f t="shared" si="4"/>
         <v>2.2999999999999972</v>
       </c>
-      <c r="E287">
-        <v>173579</v>
-      </c>
-      <c r="F287" s="9">
+      <c r="E287" s="26">
+        <v>173442</v>
+      </c>
+      <c r="F287" s="26">
         <v>312082</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="8">
         <v>40558</v>
       </c>
@@ -19318,14 +19698,14 @@
         <f t="shared" si="4"/>
         <v>7.3499999999999943</v>
       </c>
-      <c r="E288">
-        <v>170115</v>
-      </c>
-      <c r="F288" s="9">
+      <c r="E288" s="26">
+        <v>169998</v>
+      </c>
+      <c r="F288" s="26">
         <v>323459</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>40589</v>
       </c>
@@ -19339,14 +19719,14 @@
         <f t="shared" si="4"/>
         <v>15.14</v>
       </c>
-      <c r="E289">
-        <v>151003</v>
-      </c>
-      <c r="F289" s="9">
+      <c r="E289" s="26">
+        <v>150980</v>
+      </c>
+      <c r="F289" s="26">
         <v>326814</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>40617</v>
       </c>
@@ -19360,14 +19740,14 @@
         <f t="shared" si="4"/>
         <v>11.780000000000001</v>
       </c>
-      <c r="E290">
-        <v>173763</v>
-      </c>
-      <c r="F290" s="9">
+      <c r="E290" s="26">
+        <v>173726</v>
+      </c>
+      <c r="F290" s="26">
         <v>338421</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="8">
         <v>40648</v>
       </c>
@@ -19381,14 +19761,14 @@
         <f t="shared" si="4"/>
         <v>13.730000000000004</v>
       </c>
-      <c r="E291">
-        <v>166440</v>
-      </c>
-      <c r="F291" s="9">
+      <c r="E291" s="26">
+        <v>166375</v>
+      </c>
+      <c r="F291" s="26">
         <v>344413</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>40678</v>
       </c>
@@ -19402,14 +19782,14 @@
         <f t="shared" si="4"/>
         <v>14.089999999999989</v>
       </c>
-      <c r="E292">
-        <v>173880</v>
-      </c>
-      <c r="F292" s="9">
+      <c r="E292" s="26">
+        <v>173764</v>
+      </c>
+      <c r="F292" s="26">
         <v>346072</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>40709</v>
       </c>
@@ -19423,14 +19803,14 @@
         <f t="shared" si="4"/>
         <v>17.569999999999993</v>
       </c>
-      <c r="E293">
-        <v>167264</v>
-      </c>
-      <c r="F293" s="9">
+      <c r="E293" s="26">
+        <v>167146</v>
+      </c>
+      <c r="F293" s="26">
         <v>333699</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="8">
         <v>40739</v>
       </c>
@@ -19444,14 +19824,14 @@
         <f t="shared" si="4"/>
         <v>19.670000000000002</v>
       </c>
-      <c r="E294">
-        <v>168226</v>
-      </c>
-      <c r="F294" s="9">
+      <c r="E294" s="26">
+        <v>168071</v>
+      </c>
+      <c r="F294" s="26">
         <v>324292</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>40770</v>
       </c>
@@ -19465,14 +19845,14 @@
         <f t="shared" si="4"/>
         <v>23.89</v>
       </c>
-      <c r="E295">
-        <v>174883</v>
-      </c>
-      <c r="F295" s="9">
+      <c r="E295" s="26">
+        <v>174806</v>
+      </c>
+      <c r="F295" s="26">
         <v>324817</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>40801</v>
       </c>
@@ -19486,14 +19866,14 @@
         <f t="shared" si="4"/>
         <v>27.310000000000002</v>
       </c>
-      <c r="E296">
-        <v>167058</v>
-      </c>
-      <c r="F296" s="9">
+      <c r="E296" s="26">
+        <v>166986</v>
+      </c>
+      <c r="F296" s="26">
         <v>308245</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>40831</v>
       </c>
@@ -19507,14 +19887,14 @@
         <f t="shared" si="4"/>
         <v>23.230000000000004</v>
       </c>
-      <c r="E297">
-        <v>181710</v>
-      </c>
-      <c r="F297" s="9">
+      <c r="E297" s="26">
+        <v>181616</v>
+      </c>
+      <c r="F297" s="26">
         <v>314922</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>40862</v>
       </c>
@@ -19528,14 +19908,14 @@
         <f t="shared" si="4"/>
         <v>13.61</v>
       </c>
-      <c r="E298">
-        <v>179247</v>
-      </c>
-      <c r="F298" s="9">
+      <c r="E298" s="26">
+        <v>179146</v>
+      </c>
+      <c r="F298" s="26">
         <v>314602</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
         <v>40892</v>
       </c>
@@ -19549,14 +19929,14 @@
         <f t="shared" si="4"/>
         <v>9.3100000000000023</v>
       </c>
-      <c r="E299">
-        <v>187155</v>
-      </c>
-      <c r="F299" s="9">
+      <c r="E299" s="26">
+        <v>187024</v>
+      </c>
+      <c r="F299" s="26">
         <v>308221</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>40923</v>
       </c>
@@ -19570,14 +19950,14 @@
         <f t="shared" si="4"/>
         <v>10.420000000000002</v>
       </c>
-      <c r="E300">
-        <v>190462</v>
-      </c>
-      <c r="F300" s="9">
+      <c r="E300" s="26">
+        <v>190382</v>
+      </c>
+      <c r="F300" s="26">
         <v>317882</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>40954</v>
       </c>
@@ -19591,14 +19971,14 @@
         <f t="shared" si="4"/>
         <v>17.129999999999995</v>
       </c>
-      <c r="E301">
-        <v>180955</v>
-      </c>
-      <c r="F301" s="9">
+      <c r="E301" s="26">
+        <v>180866</v>
+      </c>
+      <c r="F301" s="26">
         <v>322879</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>40983</v>
       </c>
@@ -19612,14 +19992,14 @@
         <f t="shared" si="4"/>
         <v>19.290000000000006</v>
       </c>
-      <c r="E302">
-        <v>193843</v>
-      </c>
-      <c r="F302" s="9">
+      <c r="E302" s="26">
+        <v>195014</v>
+      </c>
+      <c r="F302" s="26">
         <v>347608</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>41014</v>
       </c>
@@ -19633,14 +20013,14 @@
         <f t="shared" si="4"/>
         <v>16.430000000000007</v>
       </c>
-      <c r="E303">
-        <v>187385</v>
-      </c>
-      <c r="F303" s="9">
+      <c r="E303" s="26">
+        <v>188542</v>
+      </c>
+      <c r="F303" s="26">
         <v>357045</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>41044</v>
       </c>
@@ -19654,14 +20034,14 @@
         <f t="shared" si="4"/>
         <v>15.680000000000007</v>
       </c>
-      <c r="E304">
-        <v>195415</v>
-      </c>
-      <c r="F304" s="9">
+      <c r="E304" s="26">
+        <v>196566</v>
+      </c>
+      <c r="F304" s="26">
         <v>363759</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>41075</v>
       </c>
@@ -19675,14 +20055,14 @@
         <f t="shared" si="4"/>
         <v>12.86</v>
       </c>
-      <c r="E305">
-        <v>187949</v>
-      </c>
-      <c r="F305" s="9">
+      <c r="E305" s="26">
+        <v>187910</v>
+      </c>
+      <c r="F305" s="26">
         <v>362153</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>41105</v>
       </c>
@@ -19696,14 +20076,14 @@
         <f t="shared" si="4"/>
         <v>14.719999999999999</v>
       </c>
-      <c r="E306">
-        <v>199032</v>
-      </c>
-      <c r="F306" s="9">
+      <c r="E306" s="26">
+        <v>198952</v>
+      </c>
+      <c r="F306" s="26">
         <v>346677</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>41136</v>
       </c>
@@ -19717,14 +20097,14 @@
         <f t="shared" si="4"/>
         <v>19.230000000000004</v>
       </c>
-      <c r="E307">
-        <v>197240</v>
-      </c>
-      <c r="F307" s="9">
+      <c r="E307" s="26">
+        <v>197251</v>
+      </c>
+      <c r="F307" s="26">
         <v>336391</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>41167</v>
       </c>
@@ -19738,14 +20118,14 @@
         <f t="shared" si="4"/>
         <v>18.349999999999994</v>
       </c>
-      <c r="E308">
-        <v>196673</v>
-      </c>
-      <c r="F308" s="9">
+      <c r="E308" s="26">
+        <v>196684</v>
+      </c>
+      <c r="F308" s="26">
         <v>343342</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>41197</v>
       </c>
@@ -19759,14 +20139,14 @@
         <f t="shared" si="4"/>
         <v>22.22</v>
       </c>
-      <c r="E309">
-        <v>215015</v>
-      </c>
-      <c r="F309" s="9">
+      <c r="E309" s="26">
+        <v>215152</v>
+      </c>
+      <c r="F309" s="26">
         <v>349531</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>41228</v>
       </c>
@@ -19780,14 +20160,14 @@
         <f t="shared" si="4"/>
         <v>22.53</v>
       </c>
-      <c r="E310">
-        <v>210714</v>
-      </c>
-      <c r="F310" s="9">
+      <c r="E310" s="26">
+        <v>210884</v>
+      </c>
+      <c r="F310" s="26">
         <v>352411</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>41258</v>
       </c>
@@ -19801,14 +20181,14 @@
         <f t="shared" si="4"/>
         <v>21.629999999999995</v>
       </c>
-      <c r="E311">
-        <v>219452</v>
-      </c>
-      <c r="F311" s="9">
+      <c r="E311" s="26">
+        <v>219559</v>
+      </c>
+      <c r="F311" s="26">
         <v>337796</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>41289</v>
       </c>
@@ -19822,14 +20202,14 @@
         <f t="shared" si="4"/>
         <v>18.199999999999989</v>
       </c>
-      <c r="E312">
-        <v>219175</v>
-      </c>
-      <c r="F312" s="9">
+      <c r="E312" s="26">
+        <v>219251</v>
+      </c>
+      <c r="F312" s="26">
         <v>349294</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>41320</v>
       </c>
@@ -19843,14 +20223,14 @@
         <f t="shared" si="4"/>
         <v>20.739999999999995</v>
       </c>
-      <c r="E313">
-        <v>199592</v>
-      </c>
-      <c r="F313" s="9">
+      <c r="E313" s="26">
+        <v>199798</v>
+      </c>
+      <c r="F313" s="26">
         <v>356799</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>41348</v>
       </c>
@@ -19864,14 +20244,14 @@
         <f t="shared" si="4"/>
         <v>15.530000000000001</v>
       </c>
-      <c r="E314">
-        <v>223109</v>
-      </c>
-      <c r="F314" s="9">
+      <c r="E314" s="26">
+        <v>223248</v>
+      </c>
+      <c r="F314" s="26">
         <v>364621</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>41379</v>
       </c>
@@ -19885,14 +20265,14 @@
         <f t="shared" si="4"/>
         <v>10.230000000000004</v>
       </c>
-      <c r="E315">
-        <v>221345</v>
-      </c>
-      <c r="F315" s="9">
+      <c r="E315" s="26">
+        <v>221179</v>
+      </c>
+      <c r="F315" s="26">
         <v>367555</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>41409</v>
       </c>
@@ -19906,14 +20286,14 @@
         <f t="shared" si="4"/>
         <v>8.0499999999999972</v>
       </c>
-      <c r="E316">
-        <v>226266</v>
-      </c>
-      <c r="F316" s="9">
+      <c r="E316" s="26">
+        <v>226212</v>
+      </c>
+      <c r="F316" s="26">
         <v>363304</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>41440</v>
       </c>
@@ -19927,14 +20307,14 @@
         <f t="shared" si="4"/>
         <v>7.1500000000000057</v>
       </c>
-      <c r="E317">
-        <v>217915</v>
-      </c>
-      <c r="F317" s="9">
+      <c r="E317" s="26">
+        <v>217614</v>
+      </c>
+      <c r="F317" s="26">
         <v>348807</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>41470</v>
       </c>
@@ -19948,14 +20328,14 @@
         <f t="shared" si="4"/>
         <v>3.2600000000000051</v>
       </c>
-      <c r="E318">
-        <v>231469</v>
-      </c>
-      <c r="F318" s="9">
+      <c r="E318" s="26">
+        <v>231370</v>
+      </c>
+      <c r="F318" s="26">
         <v>339391</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>41501</v>
       </c>
@@ -19969,14 +20349,14 @@
         <f t="shared" si="4"/>
         <v>4.710000000000008</v>
       </c>
-      <c r="E319">
-        <v>233139</v>
-      </c>
-      <c r="F319" s="9">
+      <c r="E319" s="26">
+        <v>232895</v>
+      </c>
+      <c r="F319" s="26">
         <v>337127</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>41532</v>
       </c>
@@ -19990,14 +20370,14 @@
         <f t="shared" si="4"/>
         <v>5.3099999999999881</v>
       </c>
-      <c r="E320">
-        <v>232347</v>
-      </c>
-      <c r="F320" s="9">
+      <c r="E320" s="26">
+        <v>232831</v>
+      </c>
+      <c r="F320" s="26">
         <v>344016</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>41562</v>
       </c>
@@ -20011,14 +20391,14 @@
         <f t="shared" si="4"/>
         <v>8.539999999999992</v>
       </c>
-      <c r="E321">
-        <v>239000</v>
-      </c>
-      <c r="F321" s="9">
+      <c r="E321" s="26">
+        <v>238966</v>
+      </c>
+      <c r="F321" s="26">
         <v>352597</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>41593</v>
       </c>
@@ -20032,14 +20412,14 @@
         <f t="shared" si="4"/>
         <v>13.930000000000007</v>
       </c>
-      <c r="E322">
-        <v>236545</v>
-      </c>
-      <c r="F322" s="9">
+      <c r="E322" s="26">
+        <v>236347</v>
+      </c>
+      <c r="F322" s="26">
         <v>344172</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>41623</v>
       </c>
@@ -20053,14 +20433,14 @@
         <f t="shared" si="4"/>
         <v>13.13000000000001</v>
       </c>
-      <c r="E323">
-        <v>245763</v>
-      </c>
-      <c r="F323" s="9">
+      <c r="E323" s="26">
+        <v>245459</v>
+      </c>
+      <c r="F323" s="26">
         <v>327191</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>41654</v>
       </c>
@@ -20074,14 +20454,14 @@
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="E324">
-        <v>249009</v>
-      </c>
-      <c r="F324" s="9">
+      <c r="E324" s="26">
+        <v>248710</v>
+      </c>
+      <c r="F324" s="26">
         <v>336238</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>41685</v>
       </c>
@@ -20092,17 +20472,17 @@
         <v>100.82</v>
       </c>
       <c r="D325">
-        <f t="shared" ref="D325:D356" si="5">B325-C325</f>
+        <f t="shared" ref="D325:D369" si="5">B325-C325</f>
         <v>8.0800000000000125</v>
       </c>
-      <c r="E325">
-        <v>227546</v>
-      </c>
-      <c r="F325" s="9">
+      <c r="E325" s="26">
+        <v>227198</v>
+      </c>
+      <c r="F325" s="26">
         <v>345274</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>41713</v>
       </c>
@@ -20116,14 +20496,14 @@
         <f t="shared" si="5"/>
         <v>6.6800000000000068</v>
       </c>
-      <c r="E326">
-        <v>256109</v>
-      </c>
-      <c r="F326" s="9">
+      <c r="E326" s="26">
+        <v>255848</v>
+      </c>
+      <c r="F326" s="26">
         <v>354987</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>41744</v>
       </c>
@@ -20137,14 +20517,14 @@
         <f t="shared" si="5"/>
         <v>5.6900000000000119</v>
       </c>
-      <c r="E327">
-        <v>258148</v>
-      </c>
-      <c r="F327" s="9">
+      <c r="E327" s="26">
+        <v>257907</v>
+      </c>
+      <c r="F327" s="26">
         <v>365339</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>41774</v>
       </c>
@@ -20158,14 +20538,14 @@
         <f t="shared" si="5"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="E328">
-        <v>266739</v>
-      </c>
-      <c r="F328" s="9">
+      <c r="E328" s="26">
+        <v>266430</v>
+      </c>
+      <c r="F328" s="26">
         <v>365460</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>41805</v>
       </c>
@@ -20179,14 +20559,14 @@
         <f t="shared" si="5"/>
         <v>6.0099999999999909</v>
       </c>
-      <c r="E329">
-        <v>261545</v>
-      </c>
-      <c r="F329" s="9">
+      <c r="E329" s="26">
+        <v>261211</v>
+      </c>
+      <c r="F329" s="26">
         <v>354305</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>41835</v>
       </c>
@@ -20200,14 +20580,14 @@
         <f t="shared" si="5"/>
         <v>3.1799999999999926</v>
       </c>
-      <c r="E330">
-        <v>273253</v>
-      </c>
-      <c r="F330" s="9">
+      <c r="E330" s="26">
+        <v>272962</v>
+      </c>
+      <c r="F330" s="26">
         <v>338737</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>41866</v>
       </c>
@@ -20221,14 +20601,14 @@
         <f t="shared" si="5"/>
         <v>5.0699999999999932</v>
       </c>
-      <c r="E331">
-        <v>275145</v>
-      </c>
-      <c r="F331" s="9">
+      <c r="E331" s="26">
+        <v>274834</v>
+      </c>
+      <c r="F331" s="26">
         <v>331076</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>41897</v>
       </c>
@@ -20242,14 +20622,14 @@
         <f t="shared" si="5"/>
         <v>3.8800000000000097</v>
       </c>
-      <c r="E332">
-        <v>271404</v>
-      </c>
-      <c r="F332" s="9">
+      <c r="E332" s="26">
+        <v>271380</v>
+      </c>
+      <c r="F332" s="26">
         <v>332155</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>41927</v>
       </c>
@@ -20263,14 +20643,14 @@
         <f t="shared" si="5"/>
         <v>3.0300000000000011</v>
       </c>
-      <c r="E333">
-        <v>286231</v>
-      </c>
-      <c r="F333" s="9">
+      <c r="E333" s="26">
+        <v>286188</v>
+      </c>
+      <c r="F333" s="26">
         <v>351717</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>41958</v>
       </c>
@@ -20284,14 +20664,14 @@
         <f t="shared" si="5"/>
         <v>3.6499999999999915</v>
       </c>
-      <c r="E334">
-        <v>279201</v>
-      </c>
-      <c r="F334" s="9">
+      <c r="E334" s="26">
+        <v>278837</v>
+      </c>
+      <c r="F334" s="26">
         <v>356729</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>41988</v>
       </c>
@@ -20305,14 +20685,14 @@
         <f t="shared" si="5"/>
         <v>3.0500000000000043</v>
       </c>
-      <c r="E335">
-        <v>294365</v>
-      </c>
-      <c r="F335" s="9">
+      <c r="E335" s="26">
+        <v>293412</v>
+      </c>
+      <c r="F335" s="26">
         <v>360865</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>42019</v>
       </c>
@@ -20326,14 +20706,14 @@
         <f t="shared" si="5"/>
         <v>0.53999999999999915</v>
       </c>
-      <c r="E336">
-        <v>290746</v>
-      </c>
-      <c r="F336" s="9">
+      <c r="E336" s="26">
+        <v>290108</v>
+      </c>
+      <c r="F336" s="26">
         <v>389213</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>42050</v>
       </c>
@@ -20347,14 +20727,14 @@
         <f t="shared" si="5"/>
         <v>7.5200000000000031</v>
       </c>
-      <c r="E337">
-        <v>266465</v>
-      </c>
-      <c r="F337" s="9">
+      <c r="E337" s="26">
+        <v>267043</v>
+      </c>
+      <c r="F337" s="26">
         <v>415313</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>42078</v>
       </c>
@@ -20368,14 +20748,14 @@
         <f t="shared" si="5"/>
         <v>8.07</v>
       </c>
-      <c r="E338">
-        <v>296531</v>
-      </c>
-      <c r="F338" s="9">
+      <c r="E338" s="26">
+        <v>296392</v>
+      </c>
+      <c r="F338" s="26">
         <v>443200</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>42109</v>
       </c>
@@ -20389,14 +20769,14 @@
         <f t="shared" si="5"/>
         <v>5.07</v>
       </c>
-      <c r="E339">
-        <v>288801</v>
-      </c>
-      <c r="F339" s="9">
+      <c r="E339" s="26">
+        <v>288788</v>
+      </c>
+      <c r="F339" s="26">
         <v>452713</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
         <v>42139</v>
       </c>
@@ -20410,14 +20790,14 @@
         <f t="shared" si="5"/>
         <v>4.8099999999999952</v>
       </c>
-      <c r="E340">
-        <v>293617</v>
-      </c>
-      <c r="F340" s="9">
+      <c r="E340" s="26">
+        <v>292254</v>
+      </c>
+      <c r="F340" s="26">
         <v>448961</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
         <v>42170</v>
       </c>
@@ -20431,14 +20811,14 @@
         <f t="shared" si="5"/>
         <v>1.6599999999999966</v>
       </c>
-      <c r="E341">
-        <v>279588</v>
-      </c>
-      <c r="F341" s="9">
+      <c r="E341" s="26">
+        <v>279881</v>
+      </c>
+      <c r="F341" s="26">
         <v>438810</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
         <v>42200</v>
       </c>
@@ -20452,14 +20832,14 @@
         <f t="shared" si="5"/>
         <v>5.6600000000000037</v>
       </c>
-      <c r="E342">
-        <v>291964</v>
-      </c>
-      <c r="F342" s="9">
+      <c r="E342" s="26">
+        <v>291456</v>
+      </c>
+      <c r="F342" s="26">
         <v>424809</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
         <v>42231</v>
       </c>
@@ -20473,14 +20853,14 @@
         <f t="shared" si="5"/>
         <v>3.6500000000000057</v>
       </c>
-      <c r="E343">
-        <v>290916</v>
-      </c>
-      <c r="F343" s="9">
+      <c r="E343" s="26">
+        <v>290742</v>
+      </c>
+      <c r="F343" s="26">
         <v>425853</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
         <v>42262</v>
       </c>
@@ -20494,14 +20874,14 @@
         <f t="shared" si="5"/>
         <v>2.1400000000000006</v>
       </c>
-      <c r="E344">
-        <v>282676</v>
-      </c>
-      <c r="F344" s="9">
+      <c r="E344" s="26">
+        <v>282521</v>
+      </c>
+      <c r="F344" s="26">
         <v>429129</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>42292</v>
       </c>
@@ -20515,14 +20895,14 @@
         <f t="shared" si="5"/>
         <v>2.2100000000000009</v>
       </c>
-      <c r="E345">
-        <v>290098</v>
-      </c>
-      <c r="F345">
+      <c r="E345" s="26">
+        <v>289522</v>
+      </c>
+      <c r="F345" s="26">
         <v>455213</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
         <v>42323</v>
       </c>
@@ -20536,14 +20916,14 @@
         <f t="shared" si="5"/>
         <v>1.8300000000000054</v>
       </c>
-      <c r="E346">
-        <v>279132</v>
-      </c>
-      <c r="F346">
+      <c r="E346" s="26">
+        <v>279204</v>
+      </c>
+      <c r="F346" s="26">
         <v>455994</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
         <v>42353</v>
       </c>
@@ -20557,14 +20937,14 @@
         <f t="shared" si="5"/>
         <v>0.82000000000000028</v>
       </c>
-      <c r="E347">
-        <v>285980</v>
-      </c>
-      <c r="F347">
+      <c r="E347" s="26">
+        <v>286108</v>
+      </c>
+      <c r="F347" s="26">
         <v>449220</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
         <v>42384</v>
       </c>
@@ -20578,14 +20958,14 @@
         <f t="shared" si="5"/>
         <v>-0.98000000000000043</v>
       </c>
-      <c r="E348">
-        <v>285002</v>
-      </c>
-      <c r="F348">
-        <v>468702</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E348" s="26">
+        <v>284780</v>
+      </c>
+      <c r="F348" s="26">
+        <v>471767</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
         <v>42415</v>
       </c>
@@ -20599,14 +20979,14 @@
         <f t="shared" si="5"/>
         <v>1.8599999999999994</v>
       </c>
-      <c r="E349">
-        <v>265253</v>
-      </c>
-      <c r="F349">
-        <v>488411</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E349" s="26">
+        <v>264107</v>
+      </c>
+      <c r="F349" s="26">
+        <v>492153</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
         <v>42444</v>
       </c>
@@ -20620,14 +21000,14 @@
         <f t="shared" si="5"/>
         <v>0.66000000000000369</v>
       </c>
-      <c r="E350">
-        <v>284402</v>
-      </c>
-      <c r="F350">
-        <v>501513</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E350" s="26">
+        <v>283160</v>
+      </c>
+      <c r="F350" s="26">
+        <v>504811</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
         <v>42475</v>
       </c>
@@ -20641,14 +21021,14 @@
         <f t="shared" si="5"/>
         <v>0.82999999999999829</v>
       </c>
-      <c r="E351">
-        <v>268413</v>
-      </c>
-      <c r="F351">
-        <v>506287</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E351" s="26">
+        <v>267193</v>
+      </c>
+      <c r="F351" s="26">
+        <v>509323</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
         <v>42505</v>
       </c>
@@ -20662,14 +21042,14 @@
         <f t="shared" si="5"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="E352">
-        <v>275353</v>
-      </c>
-      <c r="F352">
-        <v>508980</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E352" s="26">
+        <v>274635</v>
+      </c>
+      <c r="F352" s="26">
+        <v>511861</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
         <v>42536</v>
       </c>
@@ -20683,14 +21063,14 @@
         <f t="shared" si="5"/>
         <v>-0.50999999999999801</v>
       </c>
-      <c r="E353">
-        <v>261331</v>
-      </c>
-      <c r="F353">
-        <v>497968</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E353" s="26">
+        <v>261080</v>
+      </c>
+      <c r="F353" s="26">
+        <v>500857</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="8">
         <v>42566</v>
       </c>
@@ -20704,14 +21084,14 @@
         <f t="shared" si="5"/>
         <v>0.30000000000000426</v>
       </c>
-      <c r="E354">
-        <v>269491</v>
-      </c>
-      <c r="F354">
-        <v>490013</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E354" s="26">
+        <v>269130</v>
+      </c>
+      <c r="F354" s="26">
+        <v>493458</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
         <v>42597</v>
       </c>
@@ -20725,14 +21105,14 @@
         <f t="shared" si="5"/>
         <v>1.1200000000000045</v>
       </c>
-      <c r="E355">
-        <v>271053</v>
-      </c>
-      <c r="F355">
-        <v>483617</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E355" s="26">
+        <v>270207</v>
+      </c>
+      <c r="F355" s="26">
+        <v>486675</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="8">
         <v>42628</v>
       </c>
@@ -20746,6 +21126,284 @@
         <f t="shared" si="5"/>
         <v>1.3900000000000006</v>
       </c>
+      <c r="E356" s="26">
+        <v>256602</v>
+      </c>
+      <c r="F356" s="26">
+        <v>471537</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A357" s="8">
+        <v>42658</v>
+      </c>
+      <c r="B357" s="25">
+        <v>49.52</v>
+      </c>
+      <c r="C357" s="25">
+        <v>49.78</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>-0.25999999999999801</v>
+      </c>
+      <c r="E357" s="26">
+        <v>272520</v>
+      </c>
+      <c r="F357" s="26">
+        <v>491203</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A358" s="8">
+        <v>42689</v>
+      </c>
+      <c r="B358" s="25">
+        <v>44.73</v>
+      </c>
+      <c r="C358" s="25">
+        <v>45.66</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>-0.92999999999999972</v>
+      </c>
+      <c r="E358" s="26">
+        <v>266282</v>
+      </c>
+      <c r="F358" s="26">
+        <v>490734</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A359" s="8">
+        <v>42719</v>
+      </c>
+      <c r="B359" s="25">
+        <v>53.31</v>
+      </c>
+      <c r="C359" s="25">
+        <v>51.97</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>1.3400000000000034</v>
+      </c>
+      <c r="E359" s="26">
+        <v>271896</v>
+      </c>
+      <c r="F359" s="26">
+        <v>484622</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A360" s="8">
+        <v>42750</v>
+      </c>
+      <c r="B360" s="25">
+        <v>54.58</v>
+      </c>
+      <c r="C360" s="25">
+        <v>52.5</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>2.0799999999999983</v>
+      </c>
+      <c r="E360" s="26">
+        <v>274370</v>
+      </c>
+      <c r="F360" s="26">
+        <v>504460</v>
+      </c>
+      <c r="G360" s="25"/>
+      <c r="H360" s="25"/>
+      <c r="I360" s="25"/>
+      <c r="J360" s="25"/>
+      <c r="K360" s="25"/>
+      <c r="L360" s="25"/>
+      <c r="M360" s="25"/>
+      <c r="N360" s="24"/>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A361" s="8">
+        <v>42781</v>
+      </c>
+      <c r="B361" s="25">
+        <v>54.87</v>
+      </c>
+      <c r="C361" s="25">
+        <v>53.47</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="E361" s="26">
+        <v>253967</v>
+      </c>
+      <c r="F361" s="26">
+        <v>523569</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A362" s="8">
+        <v>42809</v>
+      </c>
+      <c r="B362" s="25">
+        <v>51.59</v>
+      </c>
+      <c r="C362" s="25">
+        <v>49.33</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>2.2600000000000051</v>
+      </c>
+      <c r="E362" s="26">
+        <v>283062</v>
+      </c>
+      <c r="F362" s="26">
+        <v>537884</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A363" s="8">
+        <v>42840</v>
+      </c>
+      <c r="B363" s="25">
+        <v>52.31</v>
+      </c>
+      <c r="C363" s="25">
+        <v>51.06</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="E363" s="26">
+        <v>273599</v>
+      </c>
+      <c r="F363" s="26">
+        <v>523834</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A364" s="8">
+        <v>42870</v>
+      </c>
+      <c r="B364" s="25">
+        <v>50.33</v>
+      </c>
+      <c r="C364" s="25">
+        <v>48.48</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>1.8500000000000014</v>
+      </c>
+      <c r="E364" s="26">
+        <v>283996</v>
+      </c>
+      <c r="F364" s="26">
+        <v>516868</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A365" s="8">
+        <v>42901</v>
+      </c>
+      <c r="B365" s="25">
+        <v>46.37</v>
+      </c>
+      <c r="C365" s="25">
+        <v>45.18</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>1.1899999999999977</v>
+      </c>
+      <c r="E365" s="26">
+        <v>272871</v>
+      </c>
+      <c r="F365" s="26">
+        <v>500413</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A366" s="8">
+        <v>42931</v>
+      </c>
+      <c r="B366" s="25">
+        <v>48.48</v>
+      </c>
+      <c r="C366" s="25">
+        <v>46.63</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>1.8499999999999943</v>
+      </c>
+      <c r="E366" s="26">
+        <v>286250</v>
+      </c>
+      <c r="F366" s="26">
+        <v>482394</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A367" s="8">
+        <v>42962</v>
+      </c>
+      <c r="B367" s="25">
+        <v>51.7</v>
+      </c>
+      <c r="C367" s="25">
+        <v>48.04</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>3.6600000000000037</v>
+      </c>
+      <c r="E367" s="26">
+        <v>285278</v>
+      </c>
+      <c r="F367" s="26">
+        <v>459342</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A368" s="8">
+        <v>42993</v>
+      </c>
+      <c r="B368" s="25">
+        <v>56.15</v>
+      </c>
+      <c r="C368" s="25">
+        <v>49.82</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>6.3299999999999983</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="8">
+        <v>43023</v>
+      </c>
+      <c r="B369" s="25">
+        <v>57.51</v>
+      </c>
+      <c r="C369" s="25">
+        <v>51.58</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B370" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
